--- a/may/inter-auto.xlsx
+++ b/may/inter-auto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\root2\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F78586-A3FF-4908-825B-181F70F64CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6772CD-B228-4EDD-81E5-F8EE44CC273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3660" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{C82BF492-FC5C-4903-9999-A42A60AC2EE4}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="28800" windowHeight="15555" activeTab="2" xr2:uid="{CEE35A17-45AA-4BE2-8FF0-6C046E6B7970}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3606,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4713049D-BBEE-40CC-9621-C7051920D51F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F732A26-079D-4D18-B27F-A4E3CCEFA9E2}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3619,12 +3619,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF02B1FA-B261-4791-B30B-96A8A71DAACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458E9E8-6F65-4372-8C1E-B7655051BC14}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A567" workbookViewId="0">
-      <selection activeCell="J596" sqref="J596"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17634,66 +17634,63 @@
     </row>
     <row r="417" spans="1:11">
       <c r="A417" t="s">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="B417">
-        <v>9030909000</v>
+        <v>8542310000</v>
       </c>
       <c r="C417" t="s">
-        <v>521</v>
+        <v>681</v>
       </c>
       <c r="D417">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E417">
-        <v>1343.44</v>
+        <v>6144.24</v>
       </c>
       <c r="F417">
         <v>0</v>
       </c>
       <c r="G417">
-        <v>21.74</v>
+        <v>0</v>
       </c>
       <c r="H417">
         <v>0</v>
       </c>
       <c r="I417" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J417" t="s">
-        <v>14</v>
-      </c>
-      <c r="K417" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" t="s">
-        <v>520</v>
+        <v>683</v>
       </c>
       <c r="B418">
-        <v>9030909000</v>
+        <v>8473301000</v>
       </c>
       <c r="C418" t="s">
-        <v>521</v>
+        <v>684</v>
       </c>
       <c r="D418">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E418">
-        <v>1343.44</v>
+        <v>15439.54</v>
       </c>
       <c r="F418">
         <v>0</v>
       </c>
       <c r="G418">
-        <v>21.74</v>
+        <v>771.98</v>
       </c>
       <c r="H418">
         <v>0</v>
       </c>
       <c r="I418" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J418" t="s">
         <v>14</v>
@@ -17704,66 +17701,63 @@
     </row>
     <row r="419" spans="1:11">
       <c r="A419" t="s">
-        <v>523</v>
+        <v>685</v>
       </c>
       <c r="B419">
-        <v>8473301000</v>
+        <v>8542310000</v>
       </c>
       <c r="C419" t="s">
-        <v>521</v>
+        <v>686</v>
       </c>
       <c r="D419">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E419">
-        <v>1343.44</v>
+        <v>24423.25</v>
       </c>
       <c r="F419">
         <v>0</v>
       </c>
       <c r="G419">
-        <v>179.78</v>
+        <v>0</v>
       </c>
       <c r="H419">
         <v>0</v>
       </c>
       <c r="I419" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J419" t="s">
-        <v>14</v>
-      </c>
-      <c r="K419" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" t="s">
-        <v>524</v>
+        <v>687</v>
       </c>
       <c r="B420">
-        <v>8543705000</v>
+        <v>9030909000</v>
       </c>
       <c r="C420" t="s">
-        <v>525</v>
+        <v>688</v>
       </c>
       <c r="D420">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E420">
-        <v>57976.59</v>
+        <v>80910.45</v>
       </c>
       <c r="F420">
         <v>0</v>
       </c>
       <c r="G420">
-        <v>5797.66</v>
+        <v>3484.4</v>
       </c>
       <c r="H420">
         <v>0</v>
       </c>
       <c r="I420" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J420" t="s">
         <v>14</v>
@@ -17774,63 +17768,66 @@
     </row>
     <row r="421" spans="1:11">
       <c r="A421" t="s">
-        <v>526</v>
+        <v>689</v>
       </c>
       <c r="B421">
-        <v>8542310000</v>
+        <v>8536909900</v>
       </c>
       <c r="C421" t="s">
-        <v>527</v>
+        <v>690</v>
       </c>
       <c r="D421">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E421">
-        <v>2086.9</v>
+        <v>2835.28</v>
       </c>
       <c r="F421">
         <v>0</v>
       </c>
       <c r="G421">
-        <v>0</v>
+        <v>283.52999999999997</v>
       </c>
       <c r="H421">
         <v>0</v>
       </c>
       <c r="I421" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J421" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K421" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" t="s">
-        <v>528</v>
+        <v>691</v>
       </c>
       <c r="B422">
         <v>8473309000</v>
       </c>
       <c r="C422" t="s">
-        <v>529</v>
+        <v>692</v>
       </c>
       <c r="D422">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E422">
-        <v>825.11</v>
+        <v>20484.28</v>
       </c>
       <c r="F422">
         <v>0</v>
       </c>
       <c r="G422">
-        <v>41.26</v>
+        <v>1024.21</v>
       </c>
       <c r="H422">
         <v>0</v>
       </c>
       <c r="I422" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J422" t="s">
         <v>14</v>
@@ -17841,31 +17838,31 @@
     </row>
     <row r="423" spans="1:11">
       <c r="A423" t="s">
-        <v>530</v>
+        <v>693</v>
       </c>
       <c r="B423">
-        <v>9031809000</v>
+        <v>3923409000</v>
       </c>
       <c r="C423" t="s">
-        <v>531</v>
+        <v>694</v>
       </c>
       <c r="D423">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E423">
-        <v>28959.53</v>
+        <v>860.76</v>
       </c>
       <c r="F423">
-        <v>0</v>
+        <v>172.15</v>
       </c>
       <c r="G423">
-        <v>2895.95</v>
+        <v>86.08</v>
       </c>
       <c r="H423">
         <v>0</v>
       </c>
       <c r="I423" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J423" t="s">
         <v>14</v>
@@ -17876,19 +17873,19 @@
     </row>
     <row r="424" spans="1:11">
       <c r="A424" t="s">
-        <v>526</v>
+        <v>695</v>
       </c>
       <c r="B424">
         <v>8542310000</v>
       </c>
       <c r="C424" t="s">
-        <v>532</v>
+        <v>696</v>
       </c>
       <c r="D424">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E424">
-        <v>7718.81</v>
+        <v>16133.05</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -17900,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J424" t="s">
         <v>20</v>
@@ -17908,19 +17905,19 @@
     </row>
     <row r="425" spans="1:11">
       <c r="A425" t="s">
-        <v>526</v>
+        <v>697</v>
       </c>
       <c r="B425">
         <v>8542310000</v>
       </c>
       <c r="C425" t="s">
-        <v>533</v>
+        <v>698</v>
       </c>
       <c r="D425">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E425">
-        <v>260.86</v>
+        <v>3202.88</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -17932,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J425" t="s">
         <v>20</v>
@@ -17940,63 +17937,66 @@
     </row>
     <row r="426" spans="1:11">
       <c r="A426" t="s">
-        <v>526</v>
+        <v>699</v>
       </c>
       <c r="B426">
-        <v>8542310000</v>
+        <v>7318159000</v>
       </c>
       <c r="C426" t="s">
-        <v>534</v>
+        <v>700</v>
       </c>
       <c r="D426">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E426">
-        <v>7452.65</v>
+        <v>701.65</v>
       </c>
       <c r="F426">
-        <v>0</v>
+        <v>35.08</v>
       </c>
       <c r="G426">
-        <v>0</v>
+        <v>70.16</v>
       </c>
       <c r="H426">
         <v>0</v>
       </c>
       <c r="I426" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J426" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K426" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" t="s">
-        <v>535</v>
+        <v>701</v>
       </c>
       <c r="B427">
-        <v>8534009000</v>
+        <v>8523511100</v>
       </c>
       <c r="C427" t="s">
-        <v>536</v>
+        <v>702</v>
       </c>
       <c r="D427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E427">
-        <v>1287.0899999999999</v>
+        <v>14661.92</v>
       </c>
       <c r="F427">
         <v>0</v>
       </c>
       <c r="G427">
-        <v>128.71</v>
+        <v>20.32</v>
       </c>
       <c r="H427">
         <v>0</v>
       </c>
       <c r="I427" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J427" t="s">
         <v>14</v>
@@ -18007,31 +18007,31 @@
     </row>
     <row r="428" spans="1:11">
       <c r="A428" t="s">
-        <v>537</v>
+        <v>703</v>
       </c>
       <c r="B428">
-        <v>8543200000</v>
+        <v>8537109900</v>
       </c>
       <c r="C428" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="D428">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E428">
-        <v>4944.07</v>
+        <v>19580.060000000001</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>2937.01</v>
       </c>
       <c r="G428">
-        <v>494.41</v>
+        <v>1958.01</v>
       </c>
       <c r="H428">
         <v>0</v>
       </c>
       <c r="I428" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J428" t="s">
         <v>14</v>
@@ -18042,19 +18042,19 @@
     </row>
     <row r="429" spans="1:11">
       <c r="A429" t="s">
-        <v>526</v>
+        <v>705</v>
       </c>
       <c r="B429">
-        <v>8542310000</v>
+        <v>8542320000</v>
       </c>
       <c r="C429" t="s">
-        <v>539</v>
+        <v>706</v>
       </c>
       <c r="D429">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E429">
-        <v>1043.45</v>
+        <v>1226.69</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -18066,27 +18066,27 @@
         <v>0</v>
       </c>
       <c r="I429" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J429" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" t="s">
-        <v>540</v>
+        <v>695</v>
       </c>
       <c r="B430">
         <v>8542310000</v>
       </c>
       <c r="C430" t="s">
-        <v>541</v>
+        <v>707</v>
       </c>
       <c r="D430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E430">
-        <v>525.98</v>
+        <v>10212.950000000001</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -18098,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J430" t="s">
         <v>20</v>
@@ -18106,31 +18106,31 @@
     </row>
     <row r="431" spans="1:11">
       <c r="A431" t="s">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="B431">
-        <v>9030200000</v>
+        <v>8536909900</v>
       </c>
       <c r="C431" t="s">
-        <v>543</v>
+        <v>709</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E431">
-        <v>16436.95</v>
+        <v>11532.79</v>
       </c>
       <c r="F431">
         <v>0</v>
       </c>
       <c r="G431">
-        <v>1643.69</v>
+        <v>712.94</v>
       </c>
       <c r="H431">
         <v>0</v>
       </c>
       <c r="I431" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J431" t="s">
         <v>14</v>
@@ -18141,31 +18141,31 @@
     </row>
     <row r="432" spans="1:11">
       <c r="A432" t="s">
-        <v>544</v>
+        <v>710</v>
       </c>
       <c r="B432">
-        <v>9030909000</v>
+        <v>8473301000</v>
       </c>
       <c r="C432" t="s">
-        <v>545</v>
+        <v>711</v>
       </c>
       <c r="D432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E432">
-        <v>2661.66</v>
+        <v>3642.02</v>
       </c>
       <c r="F432">
         <v>0</v>
       </c>
       <c r="G432">
-        <v>177.44</v>
+        <v>182.1</v>
       </c>
       <c r="H432">
         <v>0</v>
       </c>
       <c r="I432" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J432" t="s">
         <v>14</v>
@@ -18176,31 +18176,31 @@
     </row>
     <row r="433" spans="1:11">
       <c r="A433" t="s">
-        <v>544</v>
+        <v>712</v>
       </c>
       <c r="B433">
-        <v>9030909000</v>
+        <v>8523511100</v>
       </c>
       <c r="C433" t="s">
-        <v>545</v>
+        <v>713</v>
       </c>
       <c r="D433">
         <v>1</v>
       </c>
       <c r="E433">
-        <v>2661.66</v>
+        <v>2137.75</v>
       </c>
       <c r="F433">
         <v>0</v>
       </c>
       <c r="G433">
-        <v>354.89</v>
+        <v>106.89</v>
       </c>
       <c r="H433">
         <v>0</v>
       </c>
       <c r="I433" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J433" t="s">
         <v>14</v>
@@ -18211,51 +18211,54 @@
     </row>
     <row r="434" spans="1:11">
       <c r="A434" t="s">
-        <v>546</v>
+        <v>189</v>
       </c>
       <c r="B434">
-        <v>8542310000</v>
+        <v>8543709000</v>
       </c>
       <c r="C434" t="s">
-        <v>547</v>
+        <v>714</v>
       </c>
       <c r="D434">
         <v>1</v>
       </c>
       <c r="E434">
-        <v>1965.16</v>
+        <v>6037.63</v>
       </c>
       <c r="F434">
         <v>0</v>
       </c>
       <c r="G434">
-        <v>0</v>
+        <v>603.76</v>
       </c>
       <c r="H434">
         <v>0</v>
       </c>
       <c r="I434" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J434" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K434" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" t="s">
-        <v>526</v>
+        <v>715</v>
       </c>
       <c r="B435">
-        <v>8542310000</v>
+        <v>8419509100</v>
       </c>
       <c r="C435" t="s">
-        <v>548</v>
+        <v>716</v>
       </c>
       <c r="D435">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E435">
-        <v>2366.9299999999998</v>
+        <v>28435.23</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -18267,71 +18270,74 @@
         <v>0</v>
       </c>
       <c r="I435" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J435" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" t="s">
-        <v>526</v>
+        <v>717</v>
       </c>
       <c r="B436">
-        <v>8542310000</v>
+        <v>8473301000</v>
       </c>
       <c r="C436" t="s">
-        <v>549</v>
+        <v>718</v>
       </c>
       <c r="D436">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E436">
-        <v>3652.07</v>
+        <v>8796.1</v>
       </c>
       <c r="F436">
         <v>0</v>
       </c>
       <c r="G436">
-        <v>0</v>
+        <v>439.8</v>
       </c>
       <c r="H436">
         <v>0</v>
       </c>
       <c r="I436" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J436" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K436" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" t="s">
-        <v>550</v>
+        <v>719</v>
       </c>
       <c r="B437">
-        <v>9030400000</v>
+        <v>8537109900</v>
       </c>
       <c r="C437" t="s">
-        <v>551</v>
+        <v>720</v>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E437">
-        <v>1112559.04</v>
+        <v>1845.27</v>
       </c>
       <c r="F437">
-        <v>0</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="G437">
-        <v>111255.9</v>
+        <v>184.53</v>
       </c>
       <c r="H437">
         <v>0</v>
       </c>
       <c r="I437" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J437" t="s">
         <v>14</v>
@@ -18342,31 +18348,31 @@
     </row>
     <row r="438" spans="1:11">
       <c r="A438" t="s">
-        <v>552</v>
+        <v>721</v>
       </c>
       <c r="B438">
-        <v>8543705000</v>
+        <v>8473309000</v>
       </c>
       <c r="C438" t="s">
-        <v>553</v>
+        <v>722</v>
       </c>
       <c r="D438">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E438">
-        <v>26199.24</v>
+        <v>8121.91</v>
       </c>
       <c r="F438">
         <v>0</v>
       </c>
       <c r="G438">
-        <v>2619.92</v>
+        <v>406.1</v>
       </c>
       <c r="H438">
         <v>0</v>
       </c>
       <c r="I438" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J438" t="s">
         <v>14</v>
@@ -18377,83 +18383,89 @@
     </row>
     <row r="439" spans="1:11">
       <c r="A439" t="s">
-        <v>526</v>
+        <v>723</v>
       </c>
       <c r="B439">
-        <v>8542310000</v>
+        <v>8471501000</v>
       </c>
       <c r="C439" t="s">
-        <v>554</v>
+        <v>724</v>
       </c>
       <c r="D439">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E439">
-        <v>772.25</v>
+        <v>6849.03</v>
       </c>
       <c r="F439">
         <v>0</v>
       </c>
       <c r="G439">
-        <v>0</v>
+        <v>342.45</v>
       </c>
       <c r="H439">
         <v>0</v>
       </c>
       <c r="I439" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J439" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K439" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" t="s">
-        <v>555</v>
+        <v>723</v>
       </c>
       <c r="B440">
-        <v>8542310000</v>
+        <v>8534009000</v>
       </c>
       <c r="C440" t="s">
-        <v>556</v>
+        <v>725</v>
       </c>
       <c r="D440">
         <v>1</v>
       </c>
       <c r="E440">
-        <v>2008.64</v>
+        <v>11807.3</v>
       </c>
       <c r="F440">
         <v>0</v>
       </c>
       <c r="G440">
-        <v>0</v>
+        <v>1180.73</v>
       </c>
       <c r="H440">
         <v>0</v>
       </c>
       <c r="I440" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J440" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K440" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" t="s">
-        <v>526</v>
+        <v>726</v>
       </c>
       <c r="B441">
-        <v>8542310000</v>
+        <v>8542900000</v>
       </c>
       <c r="C441" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="D441">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E441">
-        <v>8941.73</v>
+        <v>2554.8000000000002</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -18465,109 +18477,103 @@
         <v>0</v>
       </c>
       <c r="I441" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J441" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" t="s">
-        <v>558</v>
+        <v>48</v>
       </c>
       <c r="B442">
-        <v>8536506100</v>
+        <v>8542900000</v>
       </c>
       <c r="C442" t="s">
-        <v>559</v>
+        <v>728</v>
       </c>
       <c r="D442">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E442">
-        <v>2629.92</v>
+        <v>697.05</v>
       </c>
       <c r="F442">
         <v>0</v>
       </c>
       <c r="G442">
-        <v>262.99</v>
+        <v>0</v>
       </c>
       <c r="H442">
         <v>0</v>
       </c>
       <c r="I442" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J442" t="s">
-        <v>14</v>
-      </c>
-      <c r="K442" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" t="s">
-        <v>560</v>
+        <v>729</v>
       </c>
       <c r="B443">
-        <v>9030909000</v>
+        <v>8466939000</v>
       </c>
       <c r="C443" t="s">
-        <v>561</v>
+        <v>730</v>
       </c>
       <c r="D443">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E443">
-        <v>4436.1000000000004</v>
+        <v>43432.2</v>
       </c>
       <c r="F443">
         <v>0</v>
       </c>
       <c r="G443">
-        <v>443.61</v>
+        <v>0</v>
       </c>
       <c r="H443">
         <v>0</v>
       </c>
       <c r="I443" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J443" t="s">
         <v>14</v>
-      </c>
-      <c r="K443" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" t="s">
-        <v>560</v>
+        <v>731</v>
       </c>
       <c r="B444">
-        <v>9030909000</v>
+        <v>9030339000</v>
       </c>
       <c r="C444" t="s">
-        <v>561</v>
+        <v>732</v>
       </c>
       <c r="D444">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E444">
-        <v>4436.1000000000004</v>
+        <v>7193.43</v>
       </c>
       <c r="F444">
         <v>0</v>
       </c>
       <c r="G444">
-        <v>443.61</v>
+        <v>719.34</v>
       </c>
       <c r="H444">
         <v>0</v>
       </c>
       <c r="I444" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J444" t="s">
         <v>14</v>
@@ -18578,31 +18584,31 @@
     </row>
     <row r="445" spans="1:11">
       <c r="A445" t="s">
-        <v>560</v>
+        <v>733</v>
       </c>
       <c r="B445">
-        <v>9030909000</v>
+        <v>8473309000</v>
       </c>
       <c r="C445" t="s">
-        <v>561</v>
+        <v>734</v>
       </c>
       <c r="D445">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E445">
-        <v>4436.1000000000004</v>
+        <v>11278.59</v>
       </c>
       <c r="F445">
         <v>0</v>
       </c>
       <c r="G445">
-        <v>443.61</v>
+        <v>563.92999999999995</v>
       </c>
       <c r="H445">
         <v>0</v>
       </c>
       <c r="I445" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J445" t="s">
         <v>14</v>
@@ -18613,31 +18619,31 @@
     </row>
     <row r="446" spans="1:11">
       <c r="A446" t="s">
-        <v>560</v>
+        <v>735</v>
       </c>
       <c r="B446">
-        <v>9030909000</v>
+        <v>8523511100</v>
       </c>
       <c r="C446" t="s">
-        <v>561</v>
+        <v>736</v>
       </c>
       <c r="D446">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E446">
-        <v>4436.1000000000004</v>
+        <v>14882.19</v>
       </c>
       <c r="F446">
         <v>0</v>
       </c>
       <c r="G446">
-        <v>443.61</v>
+        <v>183.47</v>
       </c>
       <c r="H446">
         <v>0</v>
       </c>
       <c r="I446" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J446" t="s">
         <v>14</v>
@@ -18648,66 +18654,63 @@
     </row>
     <row r="447" spans="1:11">
       <c r="A447" t="s">
-        <v>562</v>
+        <v>737</v>
       </c>
       <c r="B447">
-        <v>9030200000</v>
+        <v>8419509200</v>
       </c>
       <c r="C447" t="s">
-        <v>563</v>
+        <v>738</v>
       </c>
       <c r="D447">
         <v>1</v>
       </c>
       <c r="E447">
-        <v>43832</v>
+        <v>14498.93</v>
       </c>
       <c r="F447">
         <v>0</v>
       </c>
       <c r="G447">
-        <v>4383.2</v>
+        <v>0</v>
       </c>
       <c r="H447">
         <v>0</v>
       </c>
       <c r="I447" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J447" t="s">
         <v>14</v>
-      </c>
-      <c r="K447" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" t="s">
-        <v>542</v>
+        <v>739</v>
       </c>
       <c r="B448">
-        <v>9030200000</v>
+        <v>8536699900</v>
       </c>
       <c r="C448" t="s">
-        <v>564</v>
+        <v>740</v>
       </c>
       <c r="D448">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E448">
-        <v>16436.95</v>
+        <v>10982.55</v>
       </c>
       <c r="F448">
         <v>0</v>
       </c>
       <c r="G448">
-        <v>1643.69</v>
+        <v>1098.26</v>
       </c>
       <c r="H448">
         <v>0</v>
       </c>
       <c r="I448" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J448" t="s">
         <v>14</v>
@@ -18718,66 +18721,63 @@
     </row>
     <row r="449" spans="1:11">
       <c r="A449" t="s">
-        <v>565</v>
+        <v>685</v>
       </c>
       <c r="B449">
-        <v>9030310000</v>
+        <v>8542310000</v>
       </c>
       <c r="C449" t="s">
-        <v>566</v>
+        <v>741</v>
       </c>
       <c r="D449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E449">
-        <v>85.805999999999997</v>
+        <v>24939.91</v>
       </c>
       <c r="F449">
         <v>0</v>
       </c>
       <c r="G449">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="H449">
         <v>0</v>
       </c>
       <c r="I449" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J449" t="s">
-        <v>14</v>
-      </c>
-      <c r="K449" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" t="s">
-        <v>567</v>
+        <v>742</v>
       </c>
       <c r="B450">
-        <v>9030310000</v>
+        <v>8473301000</v>
       </c>
       <c r="C450" t="s">
-        <v>566</v>
+        <v>743</v>
       </c>
       <c r="D450">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E450">
-        <v>85.805999999999997</v>
+        <v>20527.740000000002</v>
       </c>
       <c r="F450">
         <v>0</v>
       </c>
       <c r="G450">
-        <v>8.58</v>
+        <v>1026.3900000000001</v>
       </c>
       <c r="H450">
         <v>0</v>
       </c>
       <c r="I450" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J450" t="s">
         <v>14</v>
@@ -18788,31 +18788,31 @@
     </row>
     <row r="451" spans="1:11">
       <c r="A451" t="s">
-        <v>567</v>
+        <v>744</v>
       </c>
       <c r="B451">
-        <v>9030310000</v>
+        <v>8523592900</v>
       </c>
       <c r="C451" t="s">
-        <v>566</v>
+        <v>745</v>
       </c>
       <c r="D451">
         <v>1</v>
       </c>
       <c r="E451">
-        <v>85.805999999999997</v>
+        <v>454.15</v>
       </c>
       <c r="F451">
         <v>0</v>
       </c>
       <c r="G451">
-        <v>8.58</v>
+        <v>22.71</v>
       </c>
       <c r="H451">
         <v>0</v>
       </c>
       <c r="I451" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J451" t="s">
         <v>14</v>
@@ -18823,200 +18823,197 @@
     </row>
     <row r="452" spans="1:11">
       <c r="A452" t="s">
-        <v>567</v>
+        <v>697</v>
       </c>
       <c r="B452">
-        <v>9030310000</v>
+        <v>8542310000</v>
       </c>
       <c r="C452" t="s">
-        <v>566</v>
+        <v>746</v>
       </c>
       <c r="D452">
         <v>1</v>
       </c>
       <c r="E452">
-        <v>85.805999999999997</v>
+        <v>841.72</v>
       </c>
       <c r="F452">
         <v>0</v>
       </c>
       <c r="G452">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="H452">
         <v>0</v>
       </c>
       <c r="I452" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J452" t="s">
-        <v>14</v>
-      </c>
-      <c r="K452" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" t="s">
-        <v>567</v>
+        <v>695</v>
       </c>
       <c r="B453">
-        <v>9030310000</v>
+        <v>8542310000</v>
       </c>
       <c r="C453" t="s">
-        <v>566</v>
+        <v>747</v>
       </c>
       <c r="D453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E453">
-        <v>85.805999999999997</v>
+        <v>6996.18</v>
       </c>
       <c r="F453">
         <v>0</v>
       </c>
       <c r="G453">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="H453">
         <v>0</v>
       </c>
       <c r="I453" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J453" t="s">
-        <v>14</v>
-      </c>
-      <c r="K453" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" t="s">
-        <v>568</v>
+        <v>748</v>
       </c>
       <c r="B454">
-        <v>8542310000</v>
+        <v>8544429900</v>
       </c>
       <c r="C454" t="s">
-        <v>569</v>
+        <v>749</v>
       </c>
       <c r="D454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E454">
-        <v>262.99</v>
+        <v>2439.9899999999998</v>
       </c>
       <c r="F454">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="G454">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="H454">
         <v>0</v>
       </c>
       <c r="I454" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J454" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K454" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" t="s">
-        <v>570</v>
+        <v>750</v>
       </c>
       <c r="B455">
-        <v>4819200000</v>
+        <v>8542310000</v>
       </c>
       <c r="C455" t="s">
-        <v>571</v>
+        <v>751</v>
       </c>
       <c r="D455">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="E455">
-        <v>858.06</v>
+        <v>93553.47</v>
       </c>
       <c r="F455">
-        <v>214.52</v>
+        <v>0</v>
       </c>
       <c r="G455">
-        <v>85.81</v>
+        <v>0</v>
       </c>
       <c r="H455">
         <v>0</v>
       </c>
       <c r="I455" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J455" t="s">
-        <v>14</v>
-      </c>
-      <c r="K455" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" t="s">
-        <v>526</v>
+        <v>752</v>
       </c>
       <c r="B456">
-        <v>8542310000</v>
+        <v>8517629900</v>
       </c>
       <c r="C456" t="s">
-        <v>572</v>
+        <v>753</v>
       </c>
       <c r="D456">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E456">
-        <v>16474.75</v>
+        <v>128775.53</v>
       </c>
       <c r="F456">
         <v>0</v>
       </c>
       <c r="G456">
-        <v>0</v>
+        <v>1146.6300000000001</v>
       </c>
       <c r="H456">
         <v>0</v>
       </c>
       <c r="I456" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J456" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K456" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" t="s">
-        <v>573</v>
+        <v>754</v>
       </c>
       <c r="B457">
-        <v>8543705000</v>
+        <v>8471801000</v>
       </c>
       <c r="C457" t="s">
-        <v>574</v>
+        <v>755</v>
       </c>
       <c r="D457">
         <v>1</v>
       </c>
       <c r="E457">
-        <v>7825.86</v>
+        <v>7471.51</v>
       </c>
       <c r="F457">
         <v>0</v>
       </c>
       <c r="G457">
-        <v>782.59</v>
+        <v>373.58</v>
       </c>
       <c r="H457">
         <v>0</v>
       </c>
       <c r="I457" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J457" t="s">
         <v>14</v>
@@ -19027,63 +19024,66 @@
     </row>
     <row r="458" spans="1:11">
       <c r="A458" t="s">
-        <v>526</v>
+        <v>756</v>
       </c>
       <c r="B458">
-        <v>8542310000</v>
+        <v>8473301000</v>
       </c>
       <c r="C458" t="s">
-        <v>575</v>
+        <v>757</v>
       </c>
       <c r="D458">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E458">
-        <v>1304.31</v>
+        <v>1505.16</v>
       </c>
       <c r="F458">
         <v>0</v>
       </c>
       <c r="G458">
-        <v>0</v>
+        <v>75.260000000000005</v>
       </c>
       <c r="H458">
         <v>0</v>
       </c>
       <c r="I458" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J458" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K458" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" t="s">
-        <v>576</v>
+        <v>758</v>
       </c>
       <c r="B459">
-        <v>9030909000</v>
+        <v>8473309000</v>
       </c>
       <c r="C459" t="s">
-        <v>577</v>
+        <v>759</v>
       </c>
       <c r="D459">
         <v>1</v>
       </c>
       <c r="E459">
-        <v>651.98</v>
+        <v>1227.78</v>
       </c>
       <c r="F459">
         <v>0</v>
       </c>
       <c r="G459">
-        <v>86.92</v>
+        <v>61.39</v>
       </c>
       <c r="H459">
         <v>0</v>
       </c>
       <c r="I459" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J459" t="s">
         <v>14</v>
@@ -19094,31 +19094,31 @@
     </row>
     <row r="460" spans="1:11">
       <c r="A460" t="s">
-        <v>578</v>
+        <v>760</v>
       </c>
       <c r="B460">
-        <v>8536509900</v>
+        <v>8534009000</v>
       </c>
       <c r="C460" t="s">
-        <v>577</v>
+        <v>761</v>
       </c>
       <c r="D460">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E460">
-        <v>651.98</v>
+        <v>5043.1000000000004</v>
       </c>
       <c r="F460">
         <v>0</v>
       </c>
       <c r="G460">
-        <v>43.48</v>
+        <v>504.31</v>
       </c>
       <c r="H460">
         <v>0</v>
       </c>
       <c r="I460" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J460" t="s">
         <v>14</v>
@@ -19129,66 +19129,63 @@
     </row>
     <row r="461" spans="1:11">
       <c r="A461" t="s">
-        <v>579</v>
+        <v>685</v>
       </c>
       <c r="B461">
-        <v>9030901000</v>
+        <v>8542310000</v>
       </c>
       <c r="C461" t="s">
-        <v>580</v>
+        <v>762</v>
       </c>
       <c r="D461">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E461">
-        <v>8804.9699999999993</v>
+        <v>3632.52</v>
       </c>
       <c r="F461">
         <v>0</v>
       </c>
       <c r="G461">
-        <v>881.5</v>
+        <v>0</v>
       </c>
       <c r="H461">
         <v>0</v>
       </c>
       <c r="I461" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J461" t="s">
-        <v>14</v>
-      </c>
-      <c r="K461" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" t="s">
-        <v>581</v>
+        <v>763</v>
       </c>
       <c r="B462">
-        <v>8533290000</v>
+        <v>8471509000</v>
       </c>
       <c r="C462" t="s">
-        <v>582</v>
+        <v>764</v>
       </c>
       <c r="D462">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E462">
-        <v>103039.25750000001</v>
+        <v>568.20000000000005</v>
       </c>
       <c r="F462">
         <v>0</v>
       </c>
       <c r="G462">
-        <v>962.63</v>
+        <v>28.41</v>
       </c>
       <c r="H462">
         <v>0</v>
       </c>
       <c r="I462" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J462" t="s">
         <v>14</v>
@@ -19199,31 +19196,31 @@
     </row>
     <row r="463" spans="1:11">
       <c r="A463" t="s">
-        <v>583</v>
+        <v>765</v>
       </c>
       <c r="B463">
-        <v>8504409000</v>
+        <v>8471509000</v>
       </c>
       <c r="C463" t="s">
-        <v>582</v>
+        <v>766</v>
       </c>
       <c r="D463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E463">
-        <v>103039.25750000001</v>
+        <v>2729.24</v>
       </c>
       <c r="F463">
         <v>0</v>
       </c>
       <c r="G463">
-        <v>2234.5700000000002</v>
+        <v>136.46</v>
       </c>
       <c r="H463">
         <v>0</v>
       </c>
       <c r="I463" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J463" t="s">
         <v>14</v>
@@ -19234,31 +19231,31 @@
     </row>
     <row r="464" spans="1:11">
       <c r="A464" t="s">
-        <v>583</v>
+        <v>767</v>
       </c>
       <c r="B464">
-        <v>8504409000</v>
+        <v>8473301000</v>
       </c>
       <c r="C464" t="s">
-        <v>582</v>
+        <v>768</v>
       </c>
       <c r="D464">
         <v>1</v>
       </c>
       <c r="E464">
-        <v>103039.25750000001</v>
+        <v>1071.6300000000001</v>
       </c>
       <c r="F464">
         <v>0</v>
       </c>
       <c r="G464">
-        <v>2028.5</v>
+        <v>53.58</v>
       </c>
       <c r="H464">
         <v>0</v>
       </c>
       <c r="I464" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J464" t="s">
         <v>14</v>
@@ -19269,54 +19266,51 @@
     </row>
     <row r="465" spans="1:11">
       <c r="A465" t="s">
-        <v>584</v>
+        <v>769</v>
       </c>
       <c r="B465">
-        <v>8543200000</v>
+        <v>8542310000</v>
       </c>
       <c r="C465" t="s">
-        <v>582</v>
+        <v>770</v>
       </c>
       <c r="D465">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E465">
-        <v>103039.25750000001</v>
+        <v>77536.47</v>
       </c>
       <c r="F465">
         <v>0</v>
       </c>
       <c r="G465">
-        <v>35990.01</v>
+        <v>0</v>
       </c>
       <c r="H465">
         <v>0</v>
       </c>
       <c r="I465" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J465" t="s">
-        <v>14</v>
-      </c>
-      <c r="K465" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="466" spans="1:11">
       <c r="A466" t="s">
-        <v>526</v>
+        <v>715</v>
       </c>
       <c r="B466">
-        <v>8542310000</v>
+        <v>8419509200</v>
       </c>
       <c r="C466" t="s">
-        <v>585</v>
+        <v>771</v>
       </c>
       <c r="D466">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E466">
-        <v>1064.6600000000001</v>
+        <v>14425.19</v>
       </c>
       <c r="F466">
         <v>0</v>
@@ -19328,109 +19322,103 @@
         <v>0</v>
       </c>
       <c r="I466" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J466" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="467" spans="1:11">
       <c r="A467" t="s">
-        <v>586</v>
+        <v>750</v>
       </c>
       <c r="B467">
-        <v>8473301000</v>
+        <v>8542310000</v>
       </c>
       <c r="C467" t="s">
-        <v>587</v>
+        <v>772</v>
       </c>
       <c r="D467">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E467">
-        <v>5323.32</v>
+        <v>1958.04</v>
       </c>
       <c r="F467">
         <v>0</v>
       </c>
       <c r="G467">
-        <v>266.17</v>
+        <v>0</v>
       </c>
       <c r="H467">
         <v>0</v>
       </c>
       <c r="I467" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J467" t="s">
-        <v>14</v>
-      </c>
-      <c r="K467" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="468" spans="1:11">
       <c r="A468" t="s">
-        <v>537</v>
+        <v>695</v>
       </c>
       <c r="B468">
-        <v>8543200000</v>
+        <v>8542310000</v>
       </c>
       <c r="C468" t="s">
-        <v>588</v>
+        <v>773</v>
       </c>
       <c r="D468">
         <v>1</v>
       </c>
       <c r="E468">
-        <v>9275.07</v>
+        <v>1382.14</v>
       </c>
       <c r="F468">
         <v>0</v>
       </c>
       <c r="G468">
-        <v>927.51</v>
+        <v>0</v>
       </c>
       <c r="H468">
         <v>0</v>
       </c>
       <c r="I468" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J468" t="s">
-        <v>14</v>
-      </c>
-      <c r="K468" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="469" spans="1:11">
       <c r="A469" t="s">
-        <v>589</v>
+        <v>774</v>
       </c>
       <c r="B469">
-        <v>9030200000</v>
+        <v>8534009000</v>
       </c>
       <c r="C469" t="s">
-        <v>590</v>
+        <v>775</v>
       </c>
       <c r="D469">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E469">
-        <v>156612.07</v>
+        <v>11286.55</v>
       </c>
       <c r="F469">
         <v>0</v>
       </c>
       <c r="G469">
-        <v>15661.21</v>
+        <v>1128.6500000000001</v>
       </c>
       <c r="H469">
         <v>0</v>
       </c>
       <c r="I469" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J469" t="s">
         <v>14</v>
@@ -19441,98 +19429,98 @@
     </row>
     <row r="470" spans="1:11">
       <c r="A470" t="s">
-        <v>526</v>
+        <v>776</v>
       </c>
       <c r="B470">
-        <v>8542310000</v>
+        <v>8536909400</v>
       </c>
       <c r="C470" t="s">
-        <v>591</v>
+        <v>777</v>
       </c>
       <c r="D470">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E470">
-        <v>10519.68</v>
+        <v>3511.83</v>
       </c>
       <c r="F470">
         <v>0</v>
       </c>
       <c r="G470">
-        <v>0</v>
+        <v>351.18</v>
       </c>
       <c r="H470">
         <v>0</v>
       </c>
       <c r="I470" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J470" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K470" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="471" spans="1:11">
       <c r="A471" t="s">
-        <v>552</v>
+        <v>685</v>
       </c>
       <c r="B471">
-        <v>8543705000</v>
+        <v>8542310000</v>
       </c>
       <c r="C471" t="s">
-        <v>592</v>
+        <v>778</v>
       </c>
       <c r="D471">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E471">
-        <v>26199.24</v>
+        <v>3353.44</v>
       </c>
       <c r="F471">
         <v>0</v>
       </c>
       <c r="G471">
-        <v>2619.92</v>
+        <v>0</v>
       </c>
       <c r="H471">
         <v>0</v>
       </c>
       <c r="I471" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J471" t="s">
-        <v>14</v>
-      </c>
-      <c r="K471" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="472" spans="1:11">
       <c r="A472" t="s">
-        <v>520</v>
+        <v>779</v>
       </c>
       <c r="B472">
-        <v>9030909000</v>
+        <v>8528591000</v>
       </c>
       <c r="C472" t="s">
-        <v>593</v>
+        <v>780</v>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E472">
-        <v>652.16</v>
+        <v>18108.39</v>
       </c>
       <c r="F472">
-        <v>0</v>
+        <v>565.89</v>
       </c>
       <c r="G472">
-        <v>65.22</v>
+        <v>113.18</v>
       </c>
       <c r="H472">
         <v>0</v>
       </c>
       <c r="I472" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J472" t="s">
         <v>14</v>
@@ -19543,31 +19531,31 @@
     </row>
     <row r="473" spans="1:11">
       <c r="A473" t="s">
-        <v>594</v>
+        <v>781</v>
       </c>
       <c r="B473">
-        <v>8536699900</v>
+        <v>3917400000</v>
       </c>
       <c r="C473" t="s">
-        <v>595</v>
+        <v>782</v>
       </c>
       <c r="D473">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E473">
-        <v>110.9</v>
+        <v>1862.6</v>
       </c>
       <c r="F473">
-        <v>0</v>
+        <v>372.52</v>
       </c>
       <c r="G473">
-        <v>11.09</v>
+        <v>0</v>
       </c>
       <c r="H473">
         <v>0</v>
       </c>
       <c r="I473" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J473" t="s">
         <v>14</v>
@@ -19578,63 +19566,66 @@
     </row>
     <row r="474" spans="1:11">
       <c r="A474" t="s">
-        <v>555</v>
+        <v>783</v>
       </c>
       <c r="B474">
-        <v>8542310000</v>
+        <v>8471909000</v>
       </c>
       <c r="C474" t="s">
-        <v>596</v>
+        <v>784</v>
       </c>
       <c r="D474">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E474">
-        <v>44694.36</v>
+        <v>2669.01</v>
       </c>
       <c r="F474">
         <v>0</v>
       </c>
       <c r="G474">
-        <v>0</v>
+        <v>133.44999999999999</v>
       </c>
       <c r="H474">
         <v>0</v>
       </c>
       <c r="I474" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J474" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K474" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="475" spans="1:11">
       <c r="A475" t="s">
-        <v>558</v>
+        <v>475</v>
       </c>
       <c r="B475">
-        <v>8536506100</v>
+        <v>8473309000</v>
       </c>
       <c r="C475" t="s">
-        <v>597</v>
+        <v>785</v>
       </c>
       <c r="D475">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E475">
-        <v>2629.92</v>
+        <v>15665.8</v>
       </c>
       <c r="F475">
         <v>0</v>
       </c>
       <c r="G475">
-        <v>262.99</v>
+        <v>783.29</v>
       </c>
       <c r="H475">
         <v>0</v>
       </c>
       <c r="I475" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
       <c r="J475" t="s">
         <v>14</v>
@@ -19645,31 +19636,31 @@
     </row>
     <row r="476" spans="1:11">
       <c r="A476" t="s">
-        <v>598</v>
+        <v>802</v>
       </c>
       <c r="B476">
-        <v>8471509000</v>
+        <v>8536691000</v>
       </c>
       <c r="C476" t="s">
-        <v>599</v>
+        <v>803</v>
       </c>
       <c r="D476">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E476">
-        <v>11086.14</v>
+        <v>23529.75</v>
       </c>
       <c r="F476">
-        <v>0</v>
+        <v>845.19</v>
       </c>
       <c r="G476">
-        <v>554.30999999999995</v>
+        <v>647.98</v>
       </c>
       <c r="H476">
         <v>0</v>
       </c>
       <c r="I476" t="s">
-        <v>522</v>
+        <v>804</v>
       </c>
       <c r="J476" t="s">
         <v>14</v>
@@ -19680,95 +19671,89 @@
     </row>
     <row r="477" spans="1:11">
       <c r="A477" t="s">
-        <v>600</v>
+        <v>127</v>
       </c>
       <c r="B477">
-        <v>9030200000</v>
+        <v>8542310000</v>
       </c>
       <c r="C477" t="s">
-        <v>601</v>
+        <v>805</v>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E477">
-        <v>856001.26</v>
+        <v>26867.74</v>
       </c>
       <c r="F477">
         <v>0</v>
       </c>
       <c r="G477">
-        <v>85600.13</v>
+        <v>0</v>
       </c>
       <c r="H477">
         <v>0</v>
       </c>
       <c r="I477" t="s">
-        <v>522</v>
+        <v>804</v>
       </c>
       <c r="J477" t="s">
-        <v>14</v>
-      </c>
-      <c r="K477" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="478" spans="1:11">
       <c r="A478" t="s">
-        <v>602</v>
+        <v>127</v>
       </c>
       <c r="B478">
-        <v>8473301000</v>
+        <v>8542310000</v>
       </c>
       <c r="C478" t="s">
-        <v>603</v>
+        <v>806</v>
       </c>
       <c r="D478">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E478">
-        <v>284.91000000000003</v>
+        <v>60537.36</v>
       </c>
       <c r="F478">
         <v>0</v>
       </c>
       <c r="G478">
-        <v>21.92</v>
+        <v>0</v>
       </c>
       <c r="H478">
         <v>0</v>
       </c>
       <c r="I478" t="s">
-        <v>522</v>
+        <v>804</v>
       </c>
       <c r="J478" t="s">
-        <v>14</v>
-      </c>
-      <c r="K478" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="479" spans="1:11">
       <c r="A479" t="s">
-        <v>604</v>
+        <v>520</v>
       </c>
       <c r="B479">
-        <v>8534009000</v>
+        <v>9030909000</v>
       </c>
       <c r="C479" t="s">
-        <v>603</v>
+        <v>521</v>
       </c>
       <c r="D479">
         <v>1</v>
       </c>
       <c r="E479">
-        <v>284.91000000000003</v>
+        <v>1343.44</v>
       </c>
       <c r="F479">
         <v>0</v>
       </c>
       <c r="G479">
-        <v>13.15</v>
+        <v>21.74</v>
       </c>
       <c r="H479">
         <v>0</v>
@@ -19785,25 +19770,25 @@
     </row>
     <row r="480" spans="1:11">
       <c r="A480" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="B480">
-        <v>8543705000</v>
+        <v>9030909000</v>
       </c>
       <c r="C480" t="s">
-        <v>605</v>
+        <v>521</v>
       </c>
       <c r="D480">
         <v>1</v>
       </c>
       <c r="E480">
-        <v>26199.24</v>
+        <v>1343.44</v>
       </c>
       <c r="F480">
         <v>0</v>
       </c>
       <c r="G480">
-        <v>2619.92</v>
+        <v>21.74</v>
       </c>
       <c r="H480">
         <v>0</v>
@@ -19820,25 +19805,25 @@
     </row>
     <row r="481" spans="1:11">
       <c r="A481" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="B481">
-        <v>8543705000</v>
+        <v>8473301000</v>
       </c>
       <c r="C481" t="s">
-        <v>606</v>
+        <v>521</v>
       </c>
       <c r="D481">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E481">
-        <v>7825.86</v>
+        <v>1343.44</v>
       </c>
       <c r="F481">
         <v>0</v>
       </c>
       <c r="G481">
-        <v>782.59</v>
+        <v>179.78</v>
       </c>
       <c r="H481">
         <v>0</v>
@@ -19855,25 +19840,25 @@
     </row>
     <row r="482" spans="1:11">
       <c r="A482" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B482">
-        <v>8542310000</v>
+        <v>8543705000</v>
       </c>
       <c r="C482" t="s">
-        <v>607</v>
+        <v>525</v>
       </c>
       <c r="D482">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E482">
-        <v>1287.0899999999999</v>
+        <v>57976.59</v>
       </c>
       <c r="F482">
         <v>0</v>
       </c>
       <c r="G482">
-        <v>0</v>
+        <v>5797.66</v>
       </c>
       <c r="H482">
         <v>0</v>
@@ -19882,7 +19867,10 @@
         <v>522</v>
       </c>
       <c r="J482" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K482" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="483" spans="1:11">
@@ -19893,13 +19881,13 @@
         <v>8542310000</v>
       </c>
       <c r="C483" t="s">
-        <v>608</v>
+        <v>527</v>
       </c>
       <c r="D483">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E483">
-        <v>6387.98</v>
+        <v>2086.9</v>
       </c>
       <c r="F483">
         <v>0</v>
@@ -19919,25 +19907,25 @@
     </row>
     <row r="484" spans="1:11">
       <c r="A484" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="B484">
-        <v>8543705000</v>
+        <v>8473309000</v>
       </c>
       <c r="C484" t="s">
-        <v>609</v>
+        <v>529</v>
       </c>
       <c r="D484">
         <v>1</v>
       </c>
       <c r="E484">
-        <v>7825.86</v>
+        <v>825.11</v>
       </c>
       <c r="F484">
         <v>0</v>
       </c>
       <c r="G484">
-        <v>782.59</v>
+        <v>41.26</v>
       </c>
       <c r="H484">
         <v>0</v>
@@ -19954,25 +19942,25 @@
     </row>
     <row r="485" spans="1:11">
       <c r="A485" t="s">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="B485">
-        <v>9030200000</v>
+        <v>9031809000</v>
       </c>
       <c r="C485" t="s">
-        <v>610</v>
+        <v>531</v>
       </c>
       <c r="D485">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E485">
-        <v>440235.06</v>
+        <v>28959.53</v>
       </c>
       <c r="F485">
         <v>0</v>
       </c>
       <c r="G485">
-        <v>44023.51</v>
+        <v>2895.95</v>
       </c>
       <c r="H485">
         <v>0</v>
@@ -19989,25 +19977,25 @@
     </row>
     <row r="486" spans="1:11">
       <c r="A486" t="s">
-        <v>611</v>
+        <v>526</v>
       </c>
       <c r="B486">
-        <v>9030200000</v>
+        <v>8542310000</v>
       </c>
       <c r="C486" t="s">
-        <v>612</v>
+        <v>532</v>
       </c>
       <c r="D486">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E486">
-        <v>21116.86</v>
+        <v>7718.81</v>
       </c>
       <c r="F486">
         <v>0</v>
       </c>
       <c r="G486">
-        <v>2111.69</v>
+        <v>0</v>
       </c>
       <c r="H486">
         <v>0</v>
@@ -20016,33 +20004,30 @@
         <v>522</v>
       </c>
       <c r="J486" t="s">
-        <v>14</v>
-      </c>
-      <c r="K486" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="487" spans="1:11">
       <c r="A487" t="s">
-        <v>613</v>
+        <v>526</v>
       </c>
       <c r="B487">
-        <v>8473301000</v>
+        <v>8542310000</v>
       </c>
       <c r="C487" t="s">
-        <v>614</v>
+        <v>533</v>
       </c>
       <c r="D487">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E487">
-        <v>4329.63</v>
+        <v>260.86</v>
       </c>
       <c r="F487">
         <v>0</v>
       </c>
       <c r="G487">
-        <v>216.48</v>
+        <v>0</v>
       </c>
       <c r="H487">
         <v>0</v>
@@ -20051,33 +20036,30 @@
         <v>522</v>
       </c>
       <c r="J487" t="s">
-        <v>14</v>
-      </c>
-      <c r="K487" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="488" spans="1:11">
       <c r="A488" t="s">
-        <v>615</v>
+        <v>526</v>
       </c>
       <c r="B488">
-        <v>9030909000</v>
+        <v>8542310000</v>
       </c>
       <c r="C488" t="s">
-        <v>616</v>
+        <v>534</v>
       </c>
       <c r="D488">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E488">
-        <v>443.61</v>
+        <v>7452.65</v>
       </c>
       <c r="F488">
         <v>0</v>
       </c>
       <c r="G488">
-        <v>44.36</v>
+        <v>0</v>
       </c>
       <c r="H488">
         <v>0</v>
@@ -20086,33 +20068,30 @@
         <v>522</v>
       </c>
       <c r="J488" t="s">
-        <v>14</v>
-      </c>
-      <c r="K488" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489" spans="1:11">
       <c r="A489" t="s">
-        <v>617</v>
+        <v>535</v>
       </c>
       <c r="B489">
-        <v>8515110000</v>
+        <v>8534009000</v>
       </c>
       <c r="C489" t="s">
-        <v>618</v>
+        <v>536</v>
       </c>
       <c r="D489">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E489">
-        <v>462.6</v>
+        <v>1287.0899999999999</v>
       </c>
       <c r="F489">
         <v>0</v>
       </c>
       <c r="G489">
-        <v>0</v>
+        <v>128.71</v>
       </c>
       <c r="H489">
         <v>0</v>
@@ -20123,28 +20102,31 @@
       <c r="J489" t="s">
         <v>14</v>
       </c>
+      <c r="K489" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="490" spans="1:11">
       <c r="A490" t="s">
-        <v>619</v>
+        <v>537</v>
       </c>
       <c r="B490">
-        <v>8471509000</v>
+        <v>8543200000</v>
       </c>
       <c r="C490" t="s">
-        <v>620</v>
+        <v>538</v>
       </c>
       <c r="D490">
         <v>1</v>
       </c>
       <c r="E490">
-        <v>3646.7550000000001</v>
+        <v>4944.07</v>
       </c>
       <c r="F490">
         <v>0</v>
       </c>
       <c r="G490">
-        <v>182.34</v>
+        <v>494.41</v>
       </c>
       <c r="H490">
         <v>0</v>
@@ -20161,25 +20143,25 @@
     </row>
     <row r="491" spans="1:11">
       <c r="A491" t="s">
-        <v>619</v>
+        <v>526</v>
       </c>
       <c r="B491">
-        <v>8471509000</v>
+        <v>8542310000</v>
       </c>
       <c r="C491" t="s">
-        <v>620</v>
+        <v>539</v>
       </c>
       <c r="D491">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E491">
-        <v>3646.7550000000001</v>
+        <v>1043.45</v>
       </c>
       <c r="F491">
         <v>0</v>
       </c>
       <c r="G491">
-        <v>182.34</v>
+        <v>0</v>
       </c>
       <c r="H491">
         <v>0</v>
@@ -20188,33 +20170,30 @@
         <v>522</v>
       </c>
       <c r="J491" t="s">
-        <v>14</v>
-      </c>
-      <c r="K491" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492" spans="1:11">
       <c r="A492" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B492">
-        <v>8543705000</v>
+        <v>8542310000</v>
       </c>
       <c r="C492" t="s">
-        <v>621</v>
+        <v>541</v>
       </c>
       <c r="D492">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E492">
-        <v>26199.24</v>
+        <v>525.98</v>
       </c>
       <c r="F492">
         <v>0</v>
       </c>
       <c r="G492">
-        <v>2619.92</v>
+        <v>0</v>
       </c>
       <c r="H492">
         <v>0</v>
@@ -20223,33 +20202,30 @@
         <v>522</v>
       </c>
       <c r="J492" t="s">
-        <v>14</v>
-      </c>
-      <c r="K492" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="493" spans="1:11">
       <c r="A493" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="B493">
-        <v>8542310000</v>
+        <v>9030200000</v>
       </c>
       <c r="C493" t="s">
-        <v>622</v>
+        <v>543</v>
       </c>
       <c r="D493">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E493">
-        <v>3992.49</v>
+        <v>16436.95</v>
       </c>
       <c r="F493">
         <v>0</v>
       </c>
       <c r="G493">
-        <v>0</v>
+        <v>1643.69</v>
       </c>
       <c r="H493">
         <v>0</v>
@@ -20258,30 +20234,33 @@
         <v>522</v>
       </c>
       <c r="J493" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K493" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="494" spans="1:11">
       <c r="A494" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="B494">
-        <v>8543705000</v>
+        <v>9030909000</v>
       </c>
       <c r="C494" t="s">
-        <v>623</v>
+        <v>545</v>
       </c>
       <c r="D494">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E494">
-        <v>7825.86</v>
+        <v>2661.66</v>
       </c>
       <c r="F494">
         <v>0</v>
       </c>
       <c r="G494">
-        <v>782.59</v>
+        <v>177.44</v>
       </c>
       <c r="H494">
         <v>0</v>
@@ -20298,25 +20277,25 @@
     </row>
     <row r="495" spans="1:11">
       <c r="A495" t="s">
-        <v>624</v>
+        <v>544</v>
       </c>
       <c r="B495">
-        <v>8543705000</v>
+        <v>9030909000</v>
       </c>
       <c r="C495" t="s">
-        <v>625</v>
+        <v>545</v>
       </c>
       <c r="D495">
         <v>1</v>
       </c>
       <c r="E495">
-        <v>72506.89</v>
+        <v>2661.66</v>
       </c>
       <c r="F495">
         <v>0</v>
       </c>
       <c r="G495">
-        <v>7250.69</v>
+        <v>354.89</v>
       </c>
       <c r="H495">
         <v>0</v>
@@ -20333,19 +20312,19 @@
     </row>
     <row r="496" spans="1:11">
       <c r="A496" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="B496">
         <v>8542310000</v>
       </c>
       <c r="C496" t="s">
-        <v>626</v>
+        <v>547</v>
       </c>
       <c r="D496">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E496">
-        <v>2059.34</v>
+        <v>1965.16</v>
       </c>
       <c r="F496">
         <v>0</v>
@@ -20365,25 +20344,25 @@
     </row>
     <row r="497" spans="1:11">
       <c r="A497" t="s">
-        <v>627</v>
+        <v>526</v>
       </c>
       <c r="B497">
-        <v>9030200000</v>
+        <v>8542310000</v>
       </c>
       <c r="C497" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="D497">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E497">
-        <v>778307.86</v>
+        <v>2366.9299999999998</v>
       </c>
       <c r="F497">
         <v>0</v>
       </c>
       <c r="G497">
-        <v>77830.789999999994</v>
+        <v>0</v>
       </c>
       <c r="H497">
         <v>0</v>
@@ -20392,33 +20371,30 @@
         <v>522</v>
       </c>
       <c r="J497" t="s">
-        <v>14</v>
-      </c>
-      <c r="K497" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="498" spans="1:11">
       <c r="A498" t="s">
-        <v>629</v>
+        <v>526</v>
       </c>
       <c r="B498">
-        <v>8544201900</v>
+        <v>8542310000</v>
       </c>
       <c r="C498" t="s">
-        <v>630</v>
+        <v>549</v>
       </c>
       <c r="D498">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E498">
-        <v>39901.120000000003</v>
+        <v>3652.07</v>
       </c>
       <c r="F498">
-        <v>1995.56</v>
+        <v>0</v>
       </c>
       <c r="G498">
-        <v>3991.11</v>
+        <v>0</v>
       </c>
       <c r="H498">
         <v>0</v>
@@ -20427,33 +20403,30 @@
         <v>522</v>
       </c>
       <c r="J498" t="s">
-        <v>14</v>
-      </c>
-      <c r="K498" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="499" spans="1:11">
       <c r="A499" t="s">
-        <v>631</v>
+        <v>550</v>
       </c>
       <c r="B499">
-        <v>8504401900</v>
+        <v>9030400000</v>
       </c>
       <c r="C499" t="s">
-        <v>632</v>
+        <v>551</v>
       </c>
       <c r="D499">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E499">
-        <v>5507.0866666666698</v>
+        <v>1112559.04</v>
       </c>
       <c r="F499">
         <v>0</v>
       </c>
       <c r="G499">
-        <v>869.54</v>
+        <v>111255.9</v>
       </c>
       <c r="H499">
         <v>0</v>
@@ -20470,25 +20443,25 @@
     </row>
     <row r="500" spans="1:11">
       <c r="A500" t="s">
-        <v>633</v>
+        <v>552</v>
       </c>
       <c r="B500">
-        <v>8471509000</v>
+        <v>8543705000</v>
       </c>
       <c r="C500" t="s">
-        <v>632</v>
+        <v>553</v>
       </c>
       <c r="D500">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E500">
-        <v>5507.0866666666698</v>
+        <v>26199.24</v>
       </c>
       <c r="F500">
         <v>0</v>
       </c>
       <c r="G500">
-        <v>217.39</v>
+        <v>2619.92</v>
       </c>
       <c r="H500">
         <v>0</v>
@@ -20505,25 +20478,25 @@
     </row>
     <row r="501" spans="1:11">
       <c r="A501" t="s">
-        <v>633</v>
+        <v>526</v>
       </c>
       <c r="B501">
-        <v>8471509000</v>
+        <v>8542310000</v>
       </c>
       <c r="C501" t="s">
-        <v>632</v>
+        <v>554</v>
       </c>
       <c r="D501">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E501">
-        <v>5507.0866666666698</v>
+        <v>772.25</v>
       </c>
       <c r="F501">
         <v>0</v>
       </c>
       <c r="G501">
-        <v>173.91</v>
+        <v>0</v>
       </c>
       <c r="H501">
         <v>0</v>
@@ -20532,27 +20505,24 @@
         <v>522</v>
       </c>
       <c r="J501" t="s">
-        <v>14</v>
-      </c>
-      <c r="K501" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="502" spans="1:11">
       <c r="A502" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="B502">
         <v>8542310000</v>
       </c>
       <c r="C502" t="s">
-        <v>634</v>
+        <v>556</v>
       </c>
       <c r="D502">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E502">
-        <v>1577.95</v>
+        <v>2008.64</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -20572,19 +20542,19 @@
     </row>
     <row r="503" spans="1:11">
       <c r="A503" t="s">
-        <v>635</v>
+        <v>526</v>
       </c>
       <c r="B503">
         <v>8542310000</v>
       </c>
       <c r="C503" t="s">
-        <v>636</v>
+        <v>557</v>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E503">
-        <v>221.81</v>
+        <v>8941.73</v>
       </c>
       <c r="F503">
         <v>0</v>
@@ -20604,25 +20574,25 @@
     </row>
     <row r="504" spans="1:11">
       <c r="A504" t="s">
-        <v>637</v>
+        <v>558</v>
       </c>
       <c r="B504">
-        <v>9030400000</v>
+        <v>8536506100</v>
       </c>
       <c r="C504" t="s">
-        <v>638</v>
+        <v>559</v>
       </c>
       <c r="D504">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E504">
-        <v>393344.87</v>
+        <v>2629.92</v>
       </c>
       <c r="F504">
         <v>0</v>
       </c>
       <c r="G504">
-        <v>39334.49</v>
+        <v>262.99</v>
       </c>
       <c r="H504">
         <v>0</v>
@@ -20639,25 +20609,25 @@
     </row>
     <row r="505" spans="1:11">
       <c r="A505" t="s">
-        <v>639</v>
+        <v>560</v>
       </c>
       <c r="B505">
-        <v>8544201900</v>
+        <v>9030909000</v>
       </c>
       <c r="C505" t="s">
-        <v>640</v>
+        <v>561</v>
       </c>
       <c r="D505">
         <v>1</v>
       </c>
       <c r="E505">
-        <v>43.83</v>
+        <v>4436.1000000000004</v>
       </c>
       <c r="F505">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="G505">
-        <v>4.38</v>
+        <v>443.61</v>
       </c>
       <c r="H505">
         <v>0</v>
@@ -20674,25 +20644,25 @@
     </row>
     <row r="506" spans="1:11">
       <c r="A506" t="s">
-        <v>641</v>
+        <v>560</v>
       </c>
       <c r="B506">
-        <v>9030200000</v>
+        <v>9030909000</v>
       </c>
       <c r="C506" t="s">
-        <v>642</v>
+        <v>561</v>
       </c>
       <c r="D506">
         <v>1</v>
       </c>
       <c r="E506">
-        <v>311974.7</v>
+        <v>4436.1000000000004</v>
       </c>
       <c r="F506">
         <v>0</v>
       </c>
       <c r="G506">
-        <v>31197.47</v>
+        <v>443.61</v>
       </c>
       <c r="H506">
         <v>0</v>
@@ -20709,25 +20679,25 @@
     </row>
     <row r="507" spans="1:11">
       <c r="A507" t="s">
-        <v>643</v>
+        <v>560</v>
       </c>
       <c r="B507">
-        <v>8542310000</v>
+        <v>9030909000</v>
       </c>
       <c r="C507" t="s">
-        <v>644</v>
+        <v>561</v>
       </c>
       <c r="D507">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E507">
-        <v>17116.03</v>
+        <v>4436.1000000000004</v>
       </c>
       <c r="F507">
         <v>0</v>
       </c>
       <c r="G507">
-        <v>0</v>
+        <v>443.61</v>
       </c>
       <c r="H507">
         <v>0</v>
@@ -20736,30 +20706,33 @@
         <v>522</v>
       </c>
       <c r="J507" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K507" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="508" spans="1:11">
       <c r="A508" t="s">
-        <v>643</v>
+        <v>560</v>
       </c>
       <c r="B508">
-        <v>8542310000</v>
+        <v>9030909000</v>
       </c>
       <c r="C508" t="s">
-        <v>645</v>
+        <v>561</v>
       </c>
       <c r="D508">
         <v>1</v>
       </c>
       <c r="E508">
-        <v>3850.9740000000002</v>
+        <v>4436.1000000000004</v>
       </c>
       <c r="F508">
         <v>0</v>
       </c>
       <c r="G508">
-        <v>0</v>
+        <v>443.61</v>
       </c>
       <c r="H508">
         <v>0</v>
@@ -20768,30 +20741,33 @@
         <v>522</v>
       </c>
       <c r="J508" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K508" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="509" spans="1:11">
       <c r="A509" t="s">
-        <v>643</v>
+        <v>562</v>
       </c>
       <c r="B509">
-        <v>8542310000</v>
+        <v>9030200000</v>
       </c>
       <c r="C509" t="s">
-        <v>645</v>
+        <v>563</v>
       </c>
       <c r="D509">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E509">
-        <v>3850.9740000000002</v>
+        <v>43832</v>
       </c>
       <c r="F509">
         <v>0</v>
       </c>
       <c r="G509">
-        <v>0</v>
+        <v>4383.2</v>
       </c>
       <c r="H509">
         <v>0</v>
@@ -20800,30 +20776,33 @@
         <v>522</v>
       </c>
       <c r="J509" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K509" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="510" spans="1:11">
       <c r="A510" t="s">
-        <v>643</v>
+        <v>542</v>
       </c>
       <c r="B510">
-        <v>8542310000</v>
+        <v>9030200000</v>
       </c>
       <c r="C510" t="s">
-        <v>645</v>
+        <v>564</v>
       </c>
       <c r="D510">
         <v>1</v>
       </c>
       <c r="E510">
-        <v>3850.9740000000002</v>
+        <v>16436.95</v>
       </c>
       <c r="F510">
         <v>0</v>
       </c>
       <c r="G510">
-        <v>0</v>
+        <v>1643.69</v>
       </c>
       <c r="H510">
         <v>0</v>
@@ -20832,30 +20811,33 @@
         <v>522</v>
       </c>
       <c r="J510" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K510" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="511" spans="1:11">
       <c r="A511" t="s">
-        <v>643</v>
+        <v>565</v>
       </c>
       <c r="B511">
-        <v>8542310000</v>
+        <v>9030310000</v>
       </c>
       <c r="C511" t="s">
-        <v>645</v>
+        <v>566</v>
       </c>
       <c r="D511">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E511">
-        <v>3850.9740000000002</v>
+        <v>85.805999999999997</v>
       </c>
       <c r="F511">
         <v>0</v>
       </c>
       <c r="G511">
-        <v>0</v>
+        <v>8.58</v>
       </c>
       <c r="H511">
         <v>0</v>
@@ -20864,30 +20846,33 @@
         <v>522</v>
       </c>
       <c r="J511" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K511" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="512" spans="1:11">
       <c r="A512" t="s">
-        <v>643</v>
+        <v>567</v>
       </c>
       <c r="B512">
-        <v>8542310000</v>
+        <v>9030310000</v>
       </c>
       <c r="C512" t="s">
-        <v>645</v>
+        <v>566</v>
       </c>
       <c r="D512">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E512">
-        <v>3850.9740000000002</v>
+        <v>85.805999999999997</v>
       </c>
       <c r="F512">
         <v>0</v>
       </c>
       <c r="G512">
-        <v>0</v>
+        <v>8.58</v>
       </c>
       <c r="H512">
         <v>0</v>
@@ -20896,30 +20881,33 @@
         <v>522</v>
       </c>
       <c r="J512" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K512" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="513" spans="1:11">
       <c r="A513" t="s">
-        <v>646</v>
+        <v>567</v>
       </c>
       <c r="B513">
-        <v>8542310000</v>
+        <v>9030310000</v>
       </c>
       <c r="C513" t="s">
-        <v>647</v>
+        <v>566</v>
       </c>
       <c r="D513">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E513">
-        <v>3260.78</v>
+        <v>85.805999999999997</v>
       </c>
       <c r="F513">
         <v>0</v>
       </c>
       <c r="G513">
-        <v>0</v>
+        <v>8.58</v>
       </c>
       <c r="H513">
         <v>0</v>
@@ -20928,30 +20916,33 @@
         <v>522</v>
       </c>
       <c r="J513" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K513" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="514" spans="1:11">
       <c r="A514" t="s">
-        <v>648</v>
+        <v>567</v>
       </c>
       <c r="B514">
-        <v>8542900000</v>
+        <v>9030310000</v>
       </c>
       <c r="C514" t="s">
-        <v>649</v>
+        <v>566</v>
       </c>
       <c r="D514">
         <v>1</v>
       </c>
       <c r="E514">
-        <v>1304.31</v>
+        <v>85.805999999999997</v>
       </c>
       <c r="F514">
         <v>0</v>
       </c>
       <c r="G514">
-        <v>0</v>
+        <v>8.58</v>
       </c>
       <c r="H514">
         <v>0</v>
@@ -20960,30 +20951,33 @@
         <v>522</v>
       </c>
       <c r="J514" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="K514" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="515" spans="1:11">
       <c r="A515" t="s">
-        <v>650</v>
+        <v>567</v>
       </c>
       <c r="B515">
-        <v>8419902900</v>
+        <v>9030310000</v>
       </c>
       <c r="C515" t="s">
-        <v>651</v>
+        <v>566</v>
       </c>
       <c r="D515">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E515">
-        <v>13728.96</v>
+        <v>85.805999999999997</v>
       </c>
       <c r="F515">
         <v>0</v>
       </c>
       <c r="G515">
-        <v>0</v>
+        <v>8.58</v>
       </c>
       <c r="H515">
         <v>0</v>
@@ -20994,22 +20988,25 @@
       <c r="J515" t="s">
         <v>14</v>
       </c>
+      <c r="K515" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="516" spans="1:11">
       <c r="A516" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="B516">
-        <v>9025192000</v>
+        <v>8542310000</v>
       </c>
       <c r="C516" t="s">
-        <v>652</v>
+        <v>569</v>
       </c>
       <c r="D516">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E516">
-        <v>15964.75</v>
+        <v>262.99</v>
       </c>
       <c r="F516">
         <v>0</v>
@@ -21024,30 +21021,30 @@
         <v>522</v>
       </c>
       <c r="J516" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="517" spans="1:11">
       <c r="A517" t="s">
-        <v>643</v>
+        <v>570</v>
       </c>
       <c r="B517">
-        <v>8542310000</v>
+        <v>4819200000</v>
       </c>
       <c r="C517" t="s">
-        <v>653</v>
+        <v>571</v>
       </c>
       <c r="D517">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E517">
-        <v>5509.41</v>
+        <v>858.06</v>
       </c>
       <c r="F517">
-        <v>0</v>
+        <v>214.52</v>
       </c>
       <c r="G517">
-        <v>0</v>
+        <v>85.81</v>
       </c>
       <c r="H517">
         <v>0</v>
@@ -21056,30 +21053,33 @@
         <v>522</v>
       </c>
       <c r="J517" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K517" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="518" spans="1:11">
       <c r="A518" t="s">
-        <v>654</v>
+        <v>526</v>
       </c>
       <c r="B518">
-        <v>9030909000</v>
+        <v>8542310000</v>
       </c>
       <c r="C518" t="s">
-        <v>655</v>
+        <v>572</v>
       </c>
       <c r="D518">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E518">
-        <v>34749.449999999997</v>
+        <v>16474.75</v>
       </c>
       <c r="F518">
         <v>0</v>
       </c>
       <c r="G518">
-        <v>8872.2000000000007</v>
+        <v>0</v>
       </c>
       <c r="H518">
         <v>0</v>
@@ -21088,33 +21088,30 @@
         <v>522</v>
       </c>
       <c r="J518" t="s">
-        <v>14</v>
-      </c>
-      <c r="K518" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="519" spans="1:11">
       <c r="A519" t="s">
-        <v>656</v>
+        <v>573</v>
       </c>
       <c r="B519">
-        <v>8536699900</v>
+        <v>8543705000</v>
       </c>
       <c r="C519" t="s">
-        <v>655</v>
+        <v>574</v>
       </c>
       <c r="D519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E519">
-        <v>34749.449999999997</v>
+        <v>7825.86</v>
       </c>
       <c r="F519">
         <v>0</v>
       </c>
       <c r="G519">
-        <v>1330.83</v>
+        <v>782.59</v>
       </c>
       <c r="H519">
         <v>0</v>
@@ -21131,25 +21128,25 @@
     </row>
     <row r="520" spans="1:11">
       <c r="A520" t="s">
-        <v>657</v>
+        <v>526</v>
       </c>
       <c r="B520">
-        <v>9030909000</v>
+        <v>8542310000</v>
       </c>
       <c r="C520" t="s">
-        <v>655</v>
+        <v>575</v>
       </c>
       <c r="D520">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E520">
-        <v>34749.449999999997</v>
+        <v>1304.31</v>
       </c>
       <c r="F520">
         <v>0</v>
       </c>
       <c r="G520">
-        <v>221.81</v>
+        <v>0</v>
       </c>
       <c r="H520">
         <v>0</v>
@@ -21158,33 +21155,30 @@
         <v>522</v>
       </c>
       <c r="J520" t="s">
-        <v>14</v>
-      </c>
-      <c r="K520" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521" spans="1:11">
       <c r="A521" t="s">
-        <v>658</v>
+        <v>576</v>
       </c>
       <c r="B521">
-        <v>8473301000</v>
+        <v>9030909000</v>
       </c>
       <c r="C521" t="s">
-        <v>659</v>
+        <v>577</v>
       </c>
       <c r="D521">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E521">
-        <v>173007.9</v>
+        <v>651.98</v>
       </c>
       <c r="F521">
         <v>0</v>
       </c>
       <c r="G521">
-        <v>8650.4</v>
+        <v>86.92</v>
       </c>
       <c r="H521">
         <v>0</v>
@@ -21201,25 +21195,25 @@
     </row>
     <row r="522" spans="1:11">
       <c r="A522" t="s">
-        <v>660</v>
+        <v>578</v>
       </c>
       <c r="B522">
-        <v>9030909000</v>
+        <v>8536509900</v>
       </c>
       <c r="C522" t="s">
-        <v>661</v>
+        <v>577</v>
       </c>
       <c r="D522">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E522">
-        <v>7722.54</v>
+        <v>651.98</v>
       </c>
       <c r="F522">
         <v>0</v>
       </c>
       <c r="G522">
-        <v>772.25</v>
+        <v>43.48</v>
       </c>
       <c r="H522">
         <v>0</v>
@@ -21236,25 +21230,25 @@
     </row>
     <row r="523" spans="1:11">
       <c r="A523" t="s">
-        <v>662</v>
+        <v>579</v>
       </c>
       <c r="B523">
-        <v>9030909000</v>
+        <v>9030901000</v>
       </c>
       <c r="C523" t="s">
-        <v>663</v>
+        <v>580</v>
       </c>
       <c r="D523">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E523">
-        <v>36643.550000000003</v>
+        <v>8804.9699999999993</v>
       </c>
       <c r="F523">
         <v>0</v>
       </c>
       <c r="G523">
-        <v>3664.36</v>
+        <v>881.5</v>
       </c>
       <c r="H523">
         <v>0</v>
@@ -21271,25 +21265,25 @@
     </row>
     <row r="524" spans="1:11">
       <c r="A524" t="s">
-        <v>103</v>
+        <v>581</v>
       </c>
       <c r="B524">
-        <v>8473301000</v>
+        <v>8533290000</v>
       </c>
       <c r="C524" t="s">
-        <v>664</v>
+        <v>582</v>
       </c>
       <c r="D524">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E524">
-        <v>4383.2</v>
+        <v>103039.25750000001</v>
       </c>
       <c r="F524">
         <v>0</v>
       </c>
       <c r="G524">
-        <v>219.16</v>
+        <v>962.63</v>
       </c>
       <c r="H524">
         <v>0</v>
@@ -21306,25 +21300,25 @@
     </row>
     <row r="525" spans="1:11">
       <c r="A525" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="B525">
-        <v>8419902900</v>
+        <v>8504409000</v>
       </c>
       <c r="C525" t="s">
-        <v>665</v>
+        <v>582</v>
       </c>
       <c r="D525">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E525">
-        <v>20593.439999999999</v>
+        <v>103039.25750000001</v>
       </c>
       <c r="F525">
         <v>0</v>
       </c>
       <c r="G525">
-        <v>0</v>
+        <v>2234.5700000000002</v>
       </c>
       <c r="H525">
         <v>0</v>
@@ -21335,28 +21329,31 @@
       <c r="J525" t="s">
         <v>14</v>
       </c>
+      <c r="K525" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="526" spans="1:11">
       <c r="A526" t="s">
-        <v>666</v>
+        <v>583</v>
       </c>
       <c r="B526">
-        <v>8471509000</v>
+        <v>8504409000</v>
       </c>
       <c r="C526" t="s">
-        <v>667</v>
+        <v>582</v>
       </c>
       <c r="D526">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E526">
-        <v>21039.360000000001</v>
+        <v>103039.25750000001</v>
       </c>
       <c r="F526">
         <v>0</v>
       </c>
       <c r="G526">
-        <v>1051.97</v>
+        <v>2028.5</v>
       </c>
       <c r="H526">
         <v>0</v>
@@ -21373,25 +21370,25 @@
     </row>
     <row r="527" spans="1:11">
       <c r="A527" t="s">
-        <v>668</v>
+        <v>584</v>
       </c>
       <c r="B527">
-        <v>8542310000</v>
+        <v>8543200000</v>
       </c>
       <c r="C527" t="s">
-        <v>669</v>
+        <v>582</v>
       </c>
       <c r="D527">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E527">
-        <v>6020.6</v>
+        <v>103039.25750000001</v>
       </c>
       <c r="F527">
         <v>0</v>
       </c>
       <c r="G527">
-        <v>0</v>
+        <v>35990.01</v>
       </c>
       <c r="H527">
         <v>0</v>
@@ -21400,30 +21397,33 @@
         <v>522</v>
       </c>
       <c r="J527" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K527" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="528" spans="1:11">
       <c r="A528" t="s">
-        <v>662</v>
+        <v>526</v>
       </c>
       <c r="B528">
-        <v>9030909000</v>
+        <v>8542310000</v>
       </c>
       <c r="C528" t="s">
-        <v>670</v>
+        <v>585</v>
       </c>
       <c r="D528">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E528">
-        <v>4679.0649999999996</v>
+        <v>1064.6600000000001</v>
       </c>
       <c r="F528">
         <v>0</v>
       </c>
       <c r="G528">
-        <v>876.64</v>
+        <v>0</v>
       </c>
       <c r="H528">
         <v>0</v>
@@ -21432,33 +21432,30 @@
         <v>522</v>
       </c>
       <c r="J528" t="s">
-        <v>14</v>
-      </c>
-      <c r="K528" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="529" spans="1:11">
       <c r="A529" t="s">
-        <v>631</v>
+        <v>586</v>
       </c>
       <c r="B529">
-        <v>8504401900</v>
+        <v>8473301000</v>
       </c>
       <c r="C529" t="s">
-        <v>670</v>
+        <v>587</v>
       </c>
       <c r="D529">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E529">
-        <v>4679.0649999999996</v>
+        <v>5323.32</v>
       </c>
       <c r="F529">
         <v>0</v>
       </c>
       <c r="G529">
-        <v>59.17</v>
+        <v>266.17</v>
       </c>
       <c r="H529">
         <v>0</v>
@@ -21475,25 +21472,25 @@
     </row>
     <row r="530" spans="1:11">
       <c r="A530" t="s">
-        <v>671</v>
+        <v>537</v>
       </c>
       <c r="B530">
-        <v>4009229000</v>
+        <v>8543200000</v>
       </c>
       <c r="C530" t="s">
-        <v>672</v>
+        <v>588</v>
       </c>
       <c r="D530">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E530">
-        <v>556.505</v>
+        <v>9275.07</v>
       </c>
       <c r="F530">
-        <v>273.91000000000003</v>
+        <v>0</v>
       </c>
       <c r="G530">
-        <v>91.3</v>
+        <v>927.51</v>
       </c>
       <c r="H530">
         <v>0</v>
@@ -21510,25 +21507,25 @@
     </row>
     <row r="531" spans="1:11">
       <c r="A531" t="s">
-        <v>673</v>
+        <v>589</v>
       </c>
       <c r="B531">
-        <v>8473301000</v>
+        <v>9030200000</v>
       </c>
       <c r="C531" t="s">
-        <v>672</v>
+        <v>590</v>
       </c>
       <c r="D531">
         <v>1</v>
       </c>
       <c r="E531">
-        <v>556.505</v>
+        <v>156612.07</v>
       </c>
       <c r="F531">
         <v>0</v>
       </c>
       <c r="G531">
-        <v>10</v>
+        <v>15661.21</v>
       </c>
       <c r="H531">
         <v>0</v>
@@ -21545,25 +21542,25 @@
     </row>
     <row r="532" spans="1:11">
       <c r="A532" t="s">
-        <v>674</v>
+        <v>526</v>
       </c>
       <c r="B532">
-        <v>9032909000</v>
+        <v>8542310000</v>
       </c>
       <c r="C532" t="s">
-        <v>675</v>
+        <v>591</v>
       </c>
       <c r="D532">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E532">
-        <v>23947.13</v>
+        <v>10519.68</v>
       </c>
       <c r="F532">
         <v>0</v>
       </c>
       <c r="G532">
-        <v>2394.71</v>
+        <v>0</v>
       </c>
       <c r="H532">
         <v>0</v>
@@ -21572,33 +21569,30 @@
         <v>522</v>
       </c>
       <c r="J532" t="s">
-        <v>14</v>
-      </c>
-      <c r="K532" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="533" spans="1:11">
       <c r="A533" t="s">
-        <v>676</v>
+        <v>552</v>
       </c>
       <c r="B533">
-        <v>8473301000</v>
+        <v>8543705000</v>
       </c>
       <c r="C533" t="s">
-        <v>677</v>
+        <v>592</v>
       </c>
       <c r="D533">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E533">
-        <v>445561.88</v>
+        <v>26199.24</v>
       </c>
       <c r="F533">
         <v>0</v>
       </c>
       <c r="G533">
-        <v>22278.09</v>
+        <v>2619.92</v>
       </c>
       <c r="H533">
         <v>0</v>
@@ -21615,25 +21609,25 @@
     </row>
     <row r="534" spans="1:11">
       <c r="A534" t="s">
-        <v>678</v>
+        <v>520</v>
       </c>
       <c r="B534">
-        <v>8473301000</v>
+        <v>9030909000</v>
       </c>
       <c r="C534" t="s">
-        <v>679</v>
+        <v>593</v>
       </c>
       <c r="D534">
         <v>1</v>
       </c>
       <c r="E534">
-        <v>4436.1000000000004</v>
+        <v>652.16</v>
       </c>
       <c r="F534">
         <v>0</v>
       </c>
       <c r="G534">
-        <v>221.81</v>
+        <v>65.22</v>
       </c>
       <c r="H534">
         <v>0</v>
@@ -21650,25 +21644,25 @@
     </row>
     <row r="535" spans="1:11">
       <c r="A535" t="s">
-        <v>678</v>
+        <v>594</v>
       </c>
       <c r="B535">
-        <v>8473301000</v>
+        <v>8536699900</v>
       </c>
       <c r="C535" t="s">
-        <v>679</v>
+        <v>595</v>
       </c>
       <c r="D535">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E535">
-        <v>4436.1000000000004</v>
+        <v>110.9</v>
       </c>
       <c r="F535">
         <v>0</v>
       </c>
       <c r="G535">
-        <v>221.81</v>
+        <v>11.09</v>
       </c>
       <c r="H535">
         <v>0</v>
@@ -21685,19 +21679,19 @@
     </row>
     <row r="536" spans="1:11">
       <c r="A536" t="s">
-        <v>680</v>
+        <v>555</v>
       </c>
       <c r="B536">
         <v>8542310000</v>
       </c>
       <c r="C536" t="s">
-        <v>681</v>
+        <v>596</v>
       </c>
       <c r="D536">
         <v>20</v>
       </c>
       <c r="E536">
-        <v>6144.24</v>
+        <v>44694.36</v>
       </c>
       <c r="F536">
         <v>0</v>
@@ -21709,7 +21703,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J536" t="s">
         <v>20</v>
@@ -21717,31 +21711,31 @@
     </row>
     <row r="537" spans="1:11">
       <c r="A537" t="s">
-        <v>683</v>
+        <v>558</v>
       </c>
       <c r="B537">
-        <v>8473301000</v>
+        <v>8536506100</v>
       </c>
       <c r="C537" t="s">
-        <v>684</v>
+        <v>597</v>
       </c>
       <c r="D537">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E537">
-        <v>15439.54</v>
+        <v>2629.92</v>
       </c>
       <c r="F537">
         <v>0</v>
       </c>
       <c r="G537">
-        <v>771.98</v>
+        <v>262.99</v>
       </c>
       <c r="H537">
         <v>0</v>
       </c>
       <c r="I537" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J537" t="s">
         <v>14</v>
@@ -21752,63 +21746,66 @@
     </row>
     <row r="538" spans="1:11">
       <c r="A538" t="s">
-        <v>685</v>
+        <v>598</v>
       </c>
       <c r="B538">
-        <v>8542310000</v>
+        <v>8471509000</v>
       </c>
       <c r="C538" t="s">
-        <v>686</v>
+        <v>599</v>
       </c>
       <c r="D538">
         <v>2</v>
       </c>
       <c r="E538">
-        <v>24423.25</v>
+        <v>11086.14</v>
       </c>
       <c r="F538">
         <v>0</v>
       </c>
       <c r="G538">
-        <v>0</v>
+        <v>554.30999999999995</v>
       </c>
       <c r="H538">
         <v>0</v>
       </c>
       <c r="I538" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J538" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K538" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="539" spans="1:11">
       <c r="A539" t="s">
-        <v>687</v>
+        <v>600</v>
       </c>
       <c r="B539">
-        <v>9030909000</v>
+        <v>9030200000</v>
       </c>
       <c r="C539" t="s">
-        <v>688</v>
+        <v>601</v>
       </c>
       <c r="D539">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E539">
-        <v>80910.45</v>
+        <v>856001.26</v>
       </c>
       <c r="F539">
         <v>0</v>
       </c>
       <c r="G539">
-        <v>3484.4</v>
+        <v>85600.13</v>
       </c>
       <c r="H539">
         <v>0</v>
       </c>
       <c r="I539" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J539" t="s">
         <v>14</v>
@@ -21819,31 +21816,31 @@
     </row>
     <row r="540" spans="1:11">
       <c r="A540" t="s">
-        <v>689</v>
+        <v>602</v>
       </c>
       <c r="B540">
-        <v>8536909900</v>
+        <v>8473301000</v>
       </c>
       <c r="C540" t="s">
-        <v>690</v>
+        <v>603</v>
       </c>
       <c r="D540">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E540">
-        <v>2835.28</v>
+        <v>284.91000000000003</v>
       </c>
       <c r="F540">
         <v>0</v>
       </c>
       <c r="G540">
-        <v>283.52999999999997</v>
+        <v>21.92</v>
       </c>
       <c r="H540">
         <v>0</v>
       </c>
       <c r="I540" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J540" t="s">
         <v>14</v>
@@ -21854,31 +21851,31 @@
     </row>
     <row r="541" spans="1:11">
       <c r="A541" t="s">
-        <v>691</v>
+        <v>604</v>
       </c>
       <c r="B541">
-        <v>8473309000</v>
+        <v>8534009000</v>
       </c>
       <c r="C541" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="D541">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E541">
-        <v>20484.28</v>
+        <v>284.91000000000003</v>
       </c>
       <c r="F541">
         <v>0</v>
       </c>
       <c r="G541">
-        <v>1024.21</v>
+        <v>13.15</v>
       </c>
       <c r="H541">
         <v>0</v>
       </c>
       <c r="I541" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J541" t="s">
         <v>14</v>
@@ -21889,31 +21886,31 @@
     </row>
     <row r="542" spans="1:11">
       <c r="A542" t="s">
-        <v>693</v>
+        <v>552</v>
       </c>
       <c r="B542">
-        <v>3923409000</v>
+        <v>8543705000</v>
       </c>
       <c r="C542" t="s">
-        <v>694</v>
+        <v>605</v>
       </c>
       <c r="D542">
         <v>1</v>
       </c>
       <c r="E542">
-        <v>860.76</v>
+        <v>26199.24</v>
       </c>
       <c r="F542">
-        <v>172.15</v>
+        <v>0</v>
       </c>
       <c r="G542">
-        <v>86.08</v>
+        <v>2619.92</v>
       </c>
       <c r="H542">
         <v>0</v>
       </c>
       <c r="I542" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J542" t="s">
         <v>14</v>
@@ -21924,51 +21921,54 @@
     </row>
     <row r="543" spans="1:11">
       <c r="A543" t="s">
-        <v>695</v>
+        <v>573</v>
       </c>
       <c r="B543">
-        <v>8542310000</v>
+        <v>8543705000</v>
       </c>
       <c r="C543" t="s">
-        <v>696</v>
+        <v>606</v>
       </c>
       <c r="D543">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E543">
-        <v>16133.05</v>
+        <v>7825.86</v>
       </c>
       <c r="F543">
         <v>0</v>
       </c>
       <c r="G543">
-        <v>0</v>
+        <v>782.59</v>
       </c>
       <c r="H543">
         <v>0</v>
       </c>
       <c r="I543" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J543" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K543" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="544" spans="1:11">
       <c r="A544" t="s">
-        <v>697</v>
+        <v>526</v>
       </c>
       <c r="B544">
         <v>8542310000</v>
       </c>
       <c r="C544" t="s">
-        <v>698</v>
+        <v>607</v>
       </c>
       <c r="D544">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E544">
-        <v>3202.88</v>
+        <v>1287.0899999999999</v>
       </c>
       <c r="F544">
         <v>0</v>
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J544" t="s">
         <v>20</v>
@@ -21988,66 +21988,63 @@
     </row>
     <row r="545" spans="1:11">
       <c r="A545" t="s">
-        <v>699</v>
+        <v>526</v>
       </c>
       <c r="B545">
-        <v>7318159000</v>
+        <v>8542310000</v>
       </c>
       <c r="C545" t="s">
-        <v>700</v>
+        <v>608</v>
       </c>
       <c r="D545">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E545">
-        <v>701.65</v>
+        <v>6387.98</v>
       </c>
       <c r="F545">
-        <v>35.08</v>
+        <v>0</v>
       </c>
       <c r="G545">
-        <v>70.16</v>
+        <v>0</v>
       </c>
       <c r="H545">
         <v>0</v>
       </c>
       <c r="I545" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J545" t="s">
-        <v>14</v>
-      </c>
-      <c r="K545" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="546" spans="1:11">
       <c r="A546" t="s">
-        <v>701</v>
+        <v>573</v>
       </c>
       <c r="B546">
-        <v>8523511100</v>
+        <v>8543705000</v>
       </c>
       <c r="C546" t="s">
-        <v>702</v>
+        <v>609</v>
       </c>
       <c r="D546">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E546">
-        <v>14661.92</v>
+        <v>7825.86</v>
       </c>
       <c r="F546">
         <v>0</v>
       </c>
       <c r="G546">
-        <v>20.32</v>
+        <v>782.59</v>
       </c>
       <c r="H546">
         <v>0</v>
       </c>
       <c r="I546" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J546" t="s">
         <v>14</v>
@@ -22058,31 +22055,31 @@
     </row>
     <row r="547" spans="1:11">
       <c r="A547" t="s">
-        <v>703</v>
+        <v>600</v>
       </c>
       <c r="B547">
-        <v>8537109900</v>
+        <v>9030200000</v>
       </c>
       <c r="C547" t="s">
-        <v>704</v>
+        <v>610</v>
       </c>
       <c r="D547">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E547">
-        <v>19580.060000000001</v>
+        <v>440235.06</v>
       </c>
       <c r="F547">
-        <v>2937.01</v>
+        <v>0</v>
       </c>
       <c r="G547">
-        <v>1958.01</v>
+        <v>44023.51</v>
       </c>
       <c r="H547">
         <v>0</v>
       </c>
       <c r="I547" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J547" t="s">
         <v>14</v>
@@ -22093,95 +22090,101 @@
     </row>
     <row r="548" spans="1:11">
       <c r="A548" t="s">
-        <v>705</v>
+        <v>611</v>
       </c>
       <c r="B548">
-        <v>8542320000</v>
+        <v>9030200000</v>
       </c>
       <c r="C548" t="s">
-        <v>706</v>
+        <v>612</v>
       </c>
       <c r="D548">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E548">
-        <v>1226.69</v>
+        <v>21116.86</v>
       </c>
       <c r="F548">
         <v>0</v>
       </c>
       <c r="G548">
-        <v>0</v>
+        <v>2111.69</v>
       </c>
       <c r="H548">
         <v>0</v>
       </c>
       <c r="I548" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J548" t="s">
         <v>14</v>
+      </c>
+      <c r="K548" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="549" spans="1:11">
       <c r="A549" t="s">
-        <v>695</v>
+        <v>613</v>
       </c>
       <c r="B549">
-        <v>8542310000</v>
+        <v>8473301000</v>
       </c>
       <c r="C549" t="s">
-        <v>707</v>
+        <v>614</v>
       </c>
       <c r="D549">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E549">
-        <v>10212.950000000001</v>
+        <v>4329.63</v>
       </c>
       <c r="F549">
         <v>0</v>
       </c>
       <c r="G549">
-        <v>0</v>
+        <v>216.48</v>
       </c>
       <c r="H549">
         <v>0</v>
       </c>
       <c r="I549" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J549" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K549" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="550" spans="1:11">
       <c r="A550" t="s">
-        <v>708</v>
+        <v>615</v>
       </c>
       <c r="B550">
-        <v>8536909900</v>
+        <v>9030909000</v>
       </c>
       <c r="C550" t="s">
-        <v>709</v>
+        <v>616</v>
       </c>
       <c r="D550">
         <v>3</v>
       </c>
       <c r="E550">
-        <v>11532.79</v>
+        <v>443.61</v>
       </c>
       <c r="F550">
         <v>0</v>
       </c>
       <c r="G550">
-        <v>712.94</v>
+        <v>44.36</v>
       </c>
       <c r="H550">
         <v>0</v>
       </c>
       <c r="I550" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J550" t="s">
         <v>14</v>
@@ -22192,66 +22195,63 @@
     </row>
     <row r="551" spans="1:11">
       <c r="A551" t="s">
-        <v>710</v>
+        <v>617</v>
       </c>
       <c r="B551">
-        <v>8473301000</v>
+        <v>8515110000</v>
       </c>
       <c r="C551" t="s">
-        <v>711</v>
+        <v>618</v>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E551">
-        <v>3642.02</v>
+        <v>462.6</v>
       </c>
       <c r="F551">
         <v>0</v>
       </c>
       <c r="G551">
-        <v>182.1</v>
+        <v>0</v>
       </c>
       <c r="H551">
         <v>0</v>
       </c>
       <c r="I551" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J551" t="s">
         <v>14</v>
-      </c>
-      <c r="K551" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="552" spans="1:11">
       <c r="A552" t="s">
-        <v>712</v>
+        <v>619</v>
       </c>
       <c r="B552">
-        <v>8523511100</v>
+        <v>8471509000</v>
       </c>
       <c r="C552" t="s">
-        <v>713</v>
+        <v>620</v>
       </c>
       <c r="D552">
         <v>1</v>
       </c>
       <c r="E552">
-        <v>2137.75</v>
+        <v>3646.7550000000001</v>
       </c>
       <c r="F552">
         <v>0</v>
       </c>
       <c r="G552">
-        <v>106.89</v>
+        <v>182.34</v>
       </c>
       <c r="H552">
         <v>0</v>
       </c>
       <c r="I552" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J552" t="s">
         <v>14</v>
@@ -22262,31 +22262,31 @@
     </row>
     <row r="553" spans="1:11">
       <c r="A553" t="s">
-        <v>189</v>
+        <v>619</v>
       </c>
       <c r="B553">
-        <v>8543709000</v>
+        <v>8471509000</v>
       </c>
       <c r="C553" t="s">
-        <v>714</v>
+        <v>620</v>
       </c>
       <c r="D553">
         <v>1</v>
       </c>
       <c r="E553">
-        <v>6037.63</v>
+        <v>3646.7550000000001</v>
       </c>
       <c r="F553">
         <v>0</v>
       </c>
       <c r="G553">
-        <v>603.76</v>
+        <v>182.34</v>
       </c>
       <c r="H553">
         <v>0</v>
       </c>
       <c r="I553" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J553" t="s">
         <v>14</v>
@@ -22297,98 +22297,98 @@
     </row>
     <row r="554" spans="1:11">
       <c r="A554" t="s">
-        <v>715</v>
+        <v>552</v>
       </c>
       <c r="B554">
-        <v>8419509100</v>
+        <v>8543705000</v>
       </c>
       <c r="C554" t="s">
-        <v>716</v>
+        <v>621</v>
       </c>
       <c r="D554">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E554">
-        <v>28435.23</v>
+        <v>26199.24</v>
       </c>
       <c r="F554">
         <v>0</v>
       </c>
       <c r="G554">
-        <v>0</v>
+        <v>2619.92</v>
       </c>
       <c r="H554">
         <v>0</v>
       </c>
       <c r="I554" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J554" t="s">
         <v>14</v>
+      </c>
+      <c r="K554" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="555" spans="1:11">
       <c r="A555" t="s">
-        <v>717</v>
+        <v>526</v>
       </c>
       <c r="B555">
-        <v>8473301000</v>
+        <v>8542310000</v>
       </c>
       <c r="C555" t="s">
-        <v>718</v>
+        <v>622</v>
       </c>
       <c r="D555">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E555">
-        <v>8796.1</v>
+        <v>3992.49</v>
       </c>
       <c r="F555">
         <v>0</v>
       </c>
       <c r="G555">
-        <v>439.8</v>
+        <v>0</v>
       </c>
       <c r="H555">
         <v>0</v>
       </c>
       <c r="I555" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J555" t="s">
-        <v>14</v>
-      </c>
-      <c r="K555" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="556" spans="1:11">
       <c r="A556" t="s">
-        <v>719</v>
+        <v>573</v>
       </c>
       <c r="B556">
-        <v>8537109900</v>
+        <v>8543705000</v>
       </c>
       <c r="C556" t="s">
-        <v>720</v>
+        <v>623</v>
       </c>
       <c r="D556">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E556">
-        <v>1845.27</v>
+        <v>7825.86</v>
       </c>
       <c r="F556">
-        <v>276.79000000000002</v>
+        <v>0</v>
       </c>
       <c r="G556">
-        <v>184.53</v>
+        <v>782.59</v>
       </c>
       <c r="H556">
         <v>0</v>
       </c>
       <c r="I556" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J556" t="s">
         <v>14</v>
@@ -22399,31 +22399,31 @@
     </row>
     <row r="557" spans="1:11">
       <c r="A557" t="s">
-        <v>721</v>
+        <v>624</v>
       </c>
       <c r="B557">
-        <v>8473309000</v>
+        <v>8543705000</v>
       </c>
       <c r="C557" t="s">
-        <v>722</v>
+        <v>625</v>
       </c>
       <c r="D557">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E557">
-        <v>8121.91</v>
+        <v>72506.89</v>
       </c>
       <c r="F557">
         <v>0</v>
       </c>
       <c r="G557">
-        <v>406.1</v>
+        <v>7250.69</v>
       </c>
       <c r="H557">
         <v>0</v>
       </c>
       <c r="I557" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J557" t="s">
         <v>14</v>
@@ -22434,66 +22434,63 @@
     </row>
     <row r="558" spans="1:11">
       <c r="A558" t="s">
-        <v>723</v>
+        <v>526</v>
       </c>
       <c r="B558">
-        <v>8471501000</v>
+        <v>8542310000</v>
       </c>
       <c r="C558" t="s">
-        <v>724</v>
+        <v>626</v>
       </c>
       <c r="D558">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E558">
-        <v>6849.03</v>
+        <v>2059.34</v>
       </c>
       <c r="F558">
         <v>0</v>
       </c>
       <c r="G558">
-        <v>342.45</v>
+        <v>0</v>
       </c>
       <c r="H558">
         <v>0</v>
       </c>
       <c r="I558" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J558" t="s">
-        <v>14</v>
-      </c>
-      <c r="K558" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="559" spans="1:11">
       <c r="A559" t="s">
-        <v>723</v>
+        <v>627</v>
       </c>
       <c r="B559">
-        <v>8534009000</v>
+        <v>9030200000</v>
       </c>
       <c r="C559" t="s">
-        <v>725</v>
+        <v>628</v>
       </c>
       <c r="D559">
         <v>1</v>
       </c>
       <c r="E559">
-        <v>11807.3</v>
+        <v>778307.86</v>
       </c>
       <c r="F559">
         <v>0</v>
       </c>
       <c r="G559">
-        <v>1180.73</v>
+        <v>77830.789999999994</v>
       </c>
       <c r="H559">
         <v>0</v>
       </c>
       <c r="I559" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J559" t="s">
         <v>14</v>
@@ -22504,127 +22501,136 @@
     </row>
     <row r="560" spans="1:11">
       <c r="A560" t="s">
-        <v>726</v>
+        <v>629</v>
       </c>
       <c r="B560">
-        <v>8542900000</v>
+        <v>8544201900</v>
       </c>
       <c r="C560" t="s">
-        <v>727</v>
+        <v>630</v>
       </c>
       <c r="D560">
         <v>1</v>
       </c>
       <c r="E560">
-        <v>2554.8000000000002</v>
+        <v>39901.120000000003</v>
       </c>
       <c r="F560">
-        <v>0</v>
+        <v>1995.56</v>
       </c>
       <c r="G560">
-        <v>0</v>
+        <v>3991.11</v>
       </c>
       <c r="H560">
         <v>0</v>
       </c>
       <c r="I560" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J560" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="K560" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="561" spans="1:11">
       <c r="A561" t="s">
-        <v>48</v>
+        <v>631</v>
       </c>
       <c r="B561">
-        <v>8542900000</v>
+        <v>8504401900</v>
       </c>
       <c r="C561" t="s">
-        <v>728</v>
+        <v>632</v>
       </c>
       <c r="D561">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E561">
-        <v>697.05</v>
+        <v>5507.0866666666698</v>
       </c>
       <c r="F561">
         <v>0</v>
       </c>
       <c r="G561">
-        <v>0</v>
+        <v>869.54</v>
       </c>
       <c r="H561">
         <v>0</v>
       </c>
       <c r="I561" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J561" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="K561" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="562" spans="1:11">
       <c r="A562" t="s">
-        <v>729</v>
+        <v>633</v>
       </c>
       <c r="B562">
-        <v>8466939000</v>
+        <v>8471509000</v>
       </c>
       <c r="C562" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="D562">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E562">
-        <v>43432.2</v>
+        <v>5507.0866666666698</v>
       </c>
       <c r="F562">
         <v>0</v>
       </c>
       <c r="G562">
-        <v>0</v>
+        <v>217.39</v>
       </c>
       <c r="H562">
         <v>0</v>
       </c>
       <c r="I562" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J562" t="s">
         <v>14</v>
+      </c>
+      <c r="K562" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="563" spans="1:11">
       <c r="A563" t="s">
-        <v>731</v>
+        <v>633</v>
       </c>
       <c r="B563">
-        <v>9030339000</v>
+        <v>8471509000</v>
       </c>
       <c r="C563" t="s">
-        <v>732</v>
+        <v>632</v>
       </c>
       <c r="D563">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E563">
-        <v>7193.43</v>
+        <v>5507.0866666666698</v>
       </c>
       <c r="F563">
         <v>0</v>
       </c>
       <c r="G563">
-        <v>719.34</v>
+        <v>173.91</v>
       </c>
       <c r="H563">
         <v>0</v>
       </c>
       <c r="I563" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J563" t="s">
         <v>14</v>
@@ -22635,133 +22641,130 @@
     </row>
     <row r="564" spans="1:11">
       <c r="A564" t="s">
-        <v>733</v>
+        <v>526</v>
       </c>
       <c r="B564">
-        <v>8473309000</v>
+        <v>8542310000</v>
       </c>
       <c r="C564" t="s">
-        <v>734</v>
+        <v>634</v>
       </c>
       <c r="D564">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E564">
-        <v>11278.59</v>
+        <v>1577.95</v>
       </c>
       <c r="F564">
         <v>0</v>
       </c>
       <c r="G564">
-        <v>563.92999999999995</v>
+        <v>0</v>
       </c>
       <c r="H564">
         <v>0</v>
       </c>
       <c r="I564" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J564" t="s">
-        <v>14</v>
-      </c>
-      <c r="K564" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="565" spans="1:11">
       <c r="A565" t="s">
-        <v>735</v>
+        <v>635</v>
       </c>
       <c r="B565">
-        <v>8523511100</v>
+        <v>8542310000</v>
       </c>
       <c r="C565" t="s">
-        <v>736</v>
+        <v>636</v>
       </c>
       <c r="D565">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E565">
-        <v>14882.19</v>
+        <v>221.81</v>
       </c>
       <c r="F565">
         <v>0</v>
       </c>
       <c r="G565">
-        <v>183.47</v>
+        <v>0</v>
       </c>
       <c r="H565">
         <v>0</v>
       </c>
       <c r="I565" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J565" t="s">
-        <v>14</v>
-      </c>
-      <c r="K565" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="566" spans="1:11">
       <c r="A566" t="s">
-        <v>737</v>
+        <v>637</v>
       </c>
       <c r="B566">
-        <v>8419509200</v>
+        <v>9030400000</v>
       </c>
       <c r="C566" t="s">
-        <v>738</v>
+        <v>638</v>
       </c>
       <c r="D566">
         <v>1</v>
       </c>
       <c r="E566">
-        <v>14498.93</v>
+        <v>393344.87</v>
       </c>
       <c r="F566">
         <v>0</v>
       </c>
       <c r="G566">
-        <v>0</v>
+        <v>39334.49</v>
       </c>
       <c r="H566">
         <v>0</v>
       </c>
       <c r="I566" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J566" t="s">
         <v>14</v>
+      </c>
+      <c r="K566" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="567" spans="1:11">
       <c r="A567" t="s">
-        <v>739</v>
+        <v>639</v>
       </c>
       <c r="B567">
-        <v>8536699900</v>
+        <v>8544201900</v>
       </c>
       <c r="C567" t="s">
-        <v>740</v>
+        <v>640</v>
       </c>
       <c r="D567">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E567">
-        <v>10982.55</v>
+        <v>43.83</v>
       </c>
       <c r="F567">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="G567">
-        <v>1098.26</v>
+        <v>4.38</v>
       </c>
       <c r="H567">
         <v>0</v>
       </c>
       <c r="I567" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J567" t="s">
         <v>14</v>
@@ -22772,121 +22775,118 @@
     </row>
     <row r="568" spans="1:11">
       <c r="A568" t="s">
-        <v>685</v>
+        <v>641</v>
       </c>
       <c r="B568">
-        <v>8542310000</v>
+        <v>9030200000</v>
       </c>
       <c r="C568" t="s">
-        <v>741</v>
+        <v>642</v>
       </c>
       <c r="D568">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E568">
-        <v>24939.91</v>
+        <v>311974.7</v>
       </c>
       <c r="F568">
         <v>0</v>
       </c>
       <c r="G568">
-        <v>0</v>
+        <v>31197.47</v>
       </c>
       <c r="H568">
         <v>0</v>
       </c>
       <c r="I568" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J568" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K568" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="569" spans="1:11">
       <c r="A569" t="s">
-        <v>742</v>
+        <v>643</v>
       </c>
       <c r="B569">
-        <v>8473301000</v>
+        <v>8542310000</v>
       </c>
       <c r="C569" t="s">
-        <v>743</v>
+        <v>644</v>
       </c>
       <c r="D569">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E569">
-        <v>20527.740000000002</v>
+        <v>17116.03</v>
       </c>
       <c r="F569">
         <v>0</v>
       </c>
       <c r="G569">
-        <v>1026.3900000000001</v>
+        <v>0</v>
       </c>
       <c r="H569">
         <v>0</v>
       </c>
       <c r="I569" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J569" t="s">
-        <v>14</v>
-      </c>
-      <c r="K569" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="570" spans="1:11">
       <c r="A570" t="s">
-        <v>744</v>
+        <v>643</v>
       </c>
       <c r="B570">
-        <v>8523592900</v>
+        <v>8542310000</v>
       </c>
       <c r="C570" t="s">
-        <v>745</v>
+        <v>645</v>
       </c>
       <c r="D570">
         <v>1</v>
       </c>
       <c r="E570">
-        <v>454.15</v>
+        <v>3850.9740000000002</v>
       </c>
       <c r="F570">
         <v>0</v>
       </c>
       <c r="G570">
-        <v>22.71</v>
+        <v>0</v>
       </c>
       <c r="H570">
         <v>0</v>
       </c>
       <c r="I570" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J570" t="s">
-        <v>14</v>
-      </c>
-      <c r="K570" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="571" spans="1:11">
       <c r="A571" t="s">
-        <v>697</v>
+        <v>643</v>
       </c>
       <c r="B571">
         <v>8542310000</v>
       </c>
       <c r="C571" t="s">
-        <v>746</v>
+        <v>645</v>
       </c>
       <c r="D571">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E571">
-        <v>841.72</v>
+        <v>3850.9740000000002</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -22898,7 +22898,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J571" t="s">
         <v>20</v>
@@ -22906,19 +22906,19 @@
     </row>
     <row r="572" spans="1:11">
       <c r="A572" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="B572">
         <v>8542310000</v>
       </c>
       <c r="C572" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="D572">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E572">
-        <v>6996.18</v>
+        <v>3850.9740000000002</v>
       </c>
       <c r="F572">
         <v>0</v>
@@ -22930,7 +22930,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J572" t="s">
         <v>20</v>
@@ -22938,54 +22938,51 @@
     </row>
     <row r="573" spans="1:11">
       <c r="A573" t="s">
-        <v>748</v>
+        <v>643</v>
       </c>
       <c r="B573">
-        <v>8544429900</v>
+        <v>8542310000</v>
       </c>
       <c r="C573" t="s">
-        <v>749</v>
+        <v>645</v>
       </c>
       <c r="D573">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E573">
-        <v>2439.9899999999998</v>
+        <v>3850.9740000000002</v>
       </c>
       <c r="F573">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="G573">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="H573">
         <v>0</v>
       </c>
       <c r="I573" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J573" t="s">
-        <v>14</v>
-      </c>
-      <c r="K573" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="574" spans="1:11">
       <c r="A574" t="s">
-        <v>750</v>
+        <v>643</v>
       </c>
       <c r="B574">
         <v>8542310000</v>
       </c>
       <c r="C574" t="s">
-        <v>751</v>
+        <v>645</v>
       </c>
       <c r="D574">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="E574">
-        <v>93553.47</v>
+        <v>3850.9740000000002</v>
       </c>
       <c r="F574">
         <v>0</v>
@@ -22997,7 +22994,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J574" t="s">
         <v>20</v>
@@ -23005,238 +23002,226 @@
     </row>
     <row r="575" spans="1:11">
       <c r="A575" t="s">
-        <v>752</v>
+        <v>646</v>
       </c>
       <c r="B575">
-        <v>8517629900</v>
+        <v>8542310000</v>
       </c>
       <c r="C575" t="s">
-        <v>753</v>
+        <v>647</v>
       </c>
       <c r="D575">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E575">
-        <v>128775.53</v>
+        <v>3260.78</v>
       </c>
       <c r="F575">
         <v>0</v>
       </c>
       <c r="G575">
-        <v>1146.6300000000001</v>
+        <v>0</v>
       </c>
       <c r="H575">
         <v>0</v>
       </c>
       <c r="I575" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J575" t="s">
-        <v>14</v>
-      </c>
-      <c r="K575" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="576" spans="1:11">
       <c r="A576" t="s">
-        <v>754</v>
+        <v>648</v>
       </c>
       <c r="B576">
-        <v>8471801000</v>
+        <v>8542900000</v>
       </c>
       <c r="C576" t="s">
-        <v>755</v>
+        <v>649</v>
       </c>
       <c r="D576">
         <v>1</v>
       </c>
       <c r="E576">
-        <v>7471.51</v>
+        <v>1304.31</v>
       </c>
       <c r="F576">
         <v>0</v>
       </c>
       <c r="G576">
-        <v>373.58</v>
+        <v>0</v>
       </c>
       <c r="H576">
         <v>0</v>
       </c>
       <c r="I576" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J576" t="s">
-        <v>14</v>
-      </c>
-      <c r="K576" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="577" spans="1:11">
       <c r="A577" t="s">
-        <v>756</v>
+        <v>650</v>
       </c>
       <c r="B577">
-        <v>8473301000</v>
+        <v>8419902900</v>
       </c>
       <c r="C577" t="s">
-        <v>757</v>
+        <v>651</v>
       </c>
       <c r="D577">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E577">
-        <v>1505.16</v>
+        <v>13728.96</v>
       </c>
       <c r="F577">
         <v>0</v>
       </c>
       <c r="G577">
-        <v>75.260000000000005</v>
+        <v>0</v>
       </c>
       <c r="H577">
         <v>0</v>
       </c>
       <c r="I577" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J577" t="s">
         <v>14</v>
-      </c>
-      <c r="K577" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="578" spans="1:11">
       <c r="A578" t="s">
-        <v>758</v>
+        <v>650</v>
       </c>
       <c r="B578">
-        <v>8473309000</v>
+        <v>9025192000</v>
       </c>
       <c r="C578" t="s">
-        <v>759</v>
+        <v>652</v>
       </c>
       <c r="D578">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E578">
-        <v>1227.78</v>
+        <v>15964.75</v>
       </c>
       <c r="F578">
         <v>0</v>
       </c>
       <c r="G578">
-        <v>61.39</v>
+        <v>0</v>
       </c>
       <c r="H578">
         <v>0</v>
       </c>
       <c r="I578" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J578" t="s">
         <v>14</v>
-      </c>
-      <c r="K578" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="579" spans="1:11">
       <c r="A579" t="s">
-        <v>760</v>
+        <v>643</v>
       </c>
       <c r="B579">
-        <v>8534009000</v>
+        <v>8542310000</v>
       </c>
       <c r="C579" t="s">
-        <v>761</v>
+        <v>653</v>
       </c>
       <c r="D579">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E579">
-        <v>5043.1000000000004</v>
+        <v>5509.41</v>
       </c>
       <c r="F579">
         <v>0</v>
       </c>
       <c r="G579">
-        <v>504.31</v>
+        <v>0</v>
       </c>
       <c r="H579">
         <v>0</v>
       </c>
       <c r="I579" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J579" t="s">
-        <v>14</v>
-      </c>
-      <c r="K579" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="580" spans="1:11">
       <c r="A580" t="s">
-        <v>685</v>
+        <v>654</v>
       </c>
       <c r="B580">
-        <v>8542310000</v>
+        <v>9030909000</v>
       </c>
       <c r="C580" t="s">
-        <v>762</v>
+        <v>655</v>
       </c>
       <c r="D580">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E580">
-        <v>3632.52</v>
+        <v>34749.449999999997</v>
       </c>
       <c r="F580">
         <v>0</v>
       </c>
       <c r="G580">
-        <v>0</v>
+        <v>8872.2000000000007</v>
       </c>
       <c r="H580">
         <v>0</v>
       </c>
       <c r="I580" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J580" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K580" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="581" spans="1:11">
       <c r="A581" t="s">
-        <v>763</v>
+        <v>656</v>
       </c>
       <c r="B581">
-        <v>8471509000</v>
+        <v>8536699900</v>
       </c>
       <c r="C581" t="s">
-        <v>764</v>
+        <v>655</v>
       </c>
       <c r="D581">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E581">
-        <v>568.20000000000005</v>
+        <v>34749.449999999997</v>
       </c>
       <c r="F581">
         <v>0</v>
       </c>
       <c r="G581">
-        <v>28.41</v>
+        <v>1330.83</v>
       </c>
       <c r="H581">
         <v>0</v>
       </c>
       <c r="I581" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J581" t="s">
         <v>14</v>
@@ -23247,31 +23232,31 @@
     </row>
     <row r="582" spans="1:11">
       <c r="A582" t="s">
-        <v>765</v>
+        <v>657</v>
       </c>
       <c r="B582">
-        <v>8471509000</v>
+        <v>9030909000</v>
       </c>
       <c r="C582" t="s">
-        <v>766</v>
+        <v>655</v>
       </c>
       <c r="D582">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E582">
-        <v>2729.24</v>
+        <v>34749.449999999997</v>
       </c>
       <c r="F582">
         <v>0</v>
       </c>
       <c r="G582">
-        <v>136.46</v>
+        <v>221.81</v>
       </c>
       <c r="H582">
         <v>0</v>
       </c>
       <c r="I582" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J582" t="s">
         <v>14</v>
@@ -23282,31 +23267,31 @@
     </row>
     <row r="583" spans="1:11">
       <c r="A583" t="s">
-        <v>767</v>
+        <v>658</v>
       </c>
       <c r="B583">
         <v>8473301000</v>
       </c>
       <c r="C583" t="s">
-        <v>768</v>
+        <v>659</v>
       </c>
       <c r="D583">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E583">
-        <v>1071.6300000000001</v>
+        <v>173007.9</v>
       </c>
       <c r="F583">
         <v>0</v>
       </c>
       <c r="G583">
-        <v>53.58</v>
+        <v>8650.4</v>
       </c>
       <c r="H583">
         <v>0</v>
       </c>
       <c r="I583" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J583" t="s">
         <v>14</v>
@@ -23317,115 +23302,124 @@
     </row>
     <row r="584" spans="1:11">
       <c r="A584" t="s">
-        <v>769</v>
+        <v>660</v>
       </c>
       <c r="B584">
-        <v>8542310000</v>
+        <v>9030909000</v>
       </c>
       <c r="C584" t="s">
-        <v>770</v>
+        <v>661</v>
       </c>
       <c r="D584">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E584">
-        <v>77536.47</v>
+        <v>7722.54</v>
       </c>
       <c r="F584">
         <v>0</v>
       </c>
       <c r="G584">
-        <v>0</v>
+        <v>772.25</v>
       </c>
       <c r="H584">
         <v>0</v>
       </c>
       <c r="I584" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J584" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K584" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="585" spans="1:11">
       <c r="A585" t="s">
-        <v>715</v>
+        <v>662</v>
       </c>
       <c r="B585">
-        <v>8419509200</v>
+        <v>9030909000</v>
       </c>
       <c r="C585" t="s">
-        <v>771</v>
+        <v>663</v>
       </c>
       <c r="D585">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E585">
-        <v>14425.19</v>
+        <v>36643.550000000003</v>
       </c>
       <c r="F585">
         <v>0</v>
       </c>
       <c r="G585">
-        <v>0</v>
+        <v>3664.36</v>
       </c>
       <c r="H585">
         <v>0</v>
       </c>
       <c r="I585" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J585" t="s">
         <v>14</v>
+      </c>
+      <c r="K585" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="586" spans="1:11">
       <c r="A586" t="s">
-        <v>750</v>
+        <v>103</v>
       </c>
       <c r="B586">
-        <v>8542310000</v>
+        <v>8473301000</v>
       </c>
       <c r="C586" t="s">
-        <v>772</v>
+        <v>664</v>
       </c>
       <c r="D586">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E586">
-        <v>1958.04</v>
+        <v>4383.2</v>
       </c>
       <c r="F586">
         <v>0</v>
       </c>
       <c r="G586">
-        <v>0</v>
+        <v>219.16</v>
       </c>
       <c r="H586">
         <v>0</v>
       </c>
       <c r="I586" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J586" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K586" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="587" spans="1:11">
       <c r="A587" t="s">
-        <v>695</v>
+        <v>650</v>
       </c>
       <c r="B587">
-        <v>8542310000</v>
+        <v>8419902900</v>
       </c>
       <c r="C587" t="s">
-        <v>773</v>
+        <v>665</v>
       </c>
       <c r="D587">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E587">
-        <v>1382.14</v>
+        <v>20593.439999999999</v>
       </c>
       <c r="F587">
         <v>0</v>
@@ -23437,39 +23431,39 @@
         <v>0</v>
       </c>
       <c r="I587" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J587" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="588" spans="1:11">
       <c r="A588" t="s">
-        <v>774</v>
+        <v>666</v>
       </c>
       <c r="B588">
-        <v>8534009000</v>
+        <v>8471509000</v>
       </c>
       <c r="C588" t="s">
-        <v>775</v>
+        <v>667</v>
       </c>
       <c r="D588">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E588">
-        <v>11286.55</v>
+        <v>21039.360000000001</v>
       </c>
       <c r="F588">
         <v>0</v>
       </c>
       <c r="G588">
-        <v>1128.6500000000001</v>
+        <v>1051.97</v>
       </c>
       <c r="H588">
         <v>0</v>
       </c>
       <c r="I588" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J588" t="s">
         <v>14</v>
@@ -23480,98 +23474,98 @@
     </row>
     <row r="589" spans="1:11">
       <c r="A589" t="s">
-        <v>776</v>
+        <v>668</v>
       </c>
       <c r="B589">
-        <v>8536909400</v>
+        <v>8542310000</v>
       </c>
       <c r="C589" t="s">
-        <v>777</v>
+        <v>669</v>
       </c>
       <c r="D589">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E589">
-        <v>3511.83</v>
+        <v>6020.6</v>
       </c>
       <c r="F589">
         <v>0</v>
       </c>
       <c r="G589">
-        <v>351.18</v>
+        <v>0</v>
       </c>
       <c r="H589">
         <v>0</v>
       </c>
       <c r="I589" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J589" t="s">
-        <v>14</v>
-      </c>
-      <c r="K589" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="590" spans="1:11">
       <c r="A590" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="B590">
-        <v>8542310000</v>
+        <v>9030909000</v>
       </c>
       <c r="C590" t="s">
-        <v>778</v>
+        <v>670</v>
       </c>
       <c r="D590">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E590">
-        <v>3353.44</v>
+        <v>4679.0649999999996</v>
       </c>
       <c r="F590">
         <v>0</v>
       </c>
       <c r="G590">
-        <v>0</v>
+        <v>876.64</v>
       </c>
       <c r="H590">
         <v>0</v>
       </c>
       <c r="I590" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J590" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K590" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="591" spans="1:11">
       <c r="A591" t="s">
-        <v>779</v>
+        <v>631</v>
       </c>
       <c r="B591">
-        <v>8528591000</v>
+        <v>8504401900</v>
       </c>
       <c r="C591" t="s">
-        <v>780</v>
+        <v>670</v>
       </c>
       <c r="D591">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E591">
-        <v>18108.39</v>
+        <v>4679.0649999999996</v>
       </c>
       <c r="F591">
-        <v>565.89</v>
+        <v>0</v>
       </c>
       <c r="G591">
-        <v>113.18</v>
+        <v>59.17</v>
       </c>
       <c r="H591">
         <v>0</v>
       </c>
       <c r="I591" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J591" t="s">
         <v>14</v>
@@ -23582,31 +23576,31 @@
     </row>
     <row r="592" spans="1:11">
       <c r="A592" t="s">
-        <v>781</v>
+        <v>671</v>
       </c>
       <c r="B592">
-        <v>3917400000</v>
+        <v>4009229000</v>
       </c>
       <c r="C592" t="s">
-        <v>782</v>
+        <v>672</v>
       </c>
       <c r="D592">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E592">
-        <v>1862.6</v>
+        <v>556.505</v>
       </c>
       <c r="F592">
-        <v>372.52</v>
+        <v>273.91000000000003</v>
       </c>
       <c r="G592">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="H592">
         <v>0</v>
       </c>
       <c r="I592" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J592" t="s">
         <v>14</v>
@@ -23617,31 +23611,31 @@
     </row>
     <row r="593" spans="1:11">
       <c r="A593" t="s">
-        <v>783</v>
+        <v>673</v>
       </c>
       <c r="B593">
-        <v>8471909000</v>
+        <v>8473301000</v>
       </c>
       <c r="C593" t="s">
-        <v>784</v>
+        <v>672</v>
       </c>
       <c r="D593">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E593">
-        <v>2669.01</v>
+        <v>556.505</v>
       </c>
       <c r="F593">
         <v>0</v>
       </c>
       <c r="G593">
-        <v>133.44999999999999</v>
+        <v>10</v>
       </c>
       <c r="H593">
         <v>0</v>
       </c>
       <c r="I593" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J593" t="s">
         <v>14</v>
@@ -23652,31 +23646,31 @@
     </row>
     <row r="594" spans="1:11">
       <c r="A594" t="s">
-        <v>475</v>
+        <v>674</v>
       </c>
       <c r="B594">
-        <v>8473309000</v>
+        <v>9032909000</v>
       </c>
       <c r="C594" t="s">
-        <v>785</v>
+        <v>675</v>
       </c>
       <c r="D594">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E594">
-        <v>15665.8</v>
+        <v>23947.13</v>
       </c>
       <c r="F594">
         <v>0</v>
       </c>
       <c r="G594">
-        <v>783.29</v>
+        <v>2394.71</v>
       </c>
       <c r="H594">
         <v>0</v>
       </c>
       <c r="I594" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="J594" t="s">
         <v>14</v>
@@ -23687,63 +23681,66 @@
     </row>
     <row r="595" spans="1:11">
       <c r="A595" t="s">
-        <v>786</v>
+        <v>676</v>
       </c>
       <c r="B595">
-        <v>8542310000</v>
+        <v>8473301000</v>
       </c>
       <c r="C595" t="s">
-        <v>787</v>
+        <v>677</v>
       </c>
       <c r="D595">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E595">
-        <v>464.62</v>
+        <v>445561.88</v>
       </c>
       <c r="F595">
         <v>0</v>
       </c>
       <c r="G595">
-        <v>0</v>
+        <v>22278.09</v>
       </c>
       <c r="H595">
         <v>0</v>
       </c>
       <c r="I595" t="s">
-        <v>788</v>
+        <v>522</v>
       </c>
       <c r="J595" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K595" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="596" spans="1:11">
       <c r="A596" t="s">
-        <v>789</v>
+        <v>678</v>
       </c>
       <c r="B596">
-        <v>9030899000</v>
+        <v>8473301000</v>
       </c>
       <c r="C596" t="s">
-        <v>790</v>
+        <v>679</v>
       </c>
       <c r="D596">
         <v>1</v>
       </c>
       <c r="E596">
-        <v>430917.73</v>
+        <v>4436.1000000000004</v>
       </c>
       <c r="F596">
         <v>0</v>
       </c>
       <c r="G596">
-        <v>43092.77</v>
+        <v>221.81</v>
       </c>
       <c r="H596">
         <v>0</v>
       </c>
       <c r="I596" t="s">
-        <v>788</v>
+        <v>522</v>
       </c>
       <c r="J596" t="s">
         <v>14</v>
@@ -23754,51 +23751,54 @@
     </row>
     <row r="597" spans="1:11">
       <c r="A597" t="s">
-        <v>791</v>
+        <v>678</v>
       </c>
       <c r="B597">
-        <v>9022909000</v>
+        <v>8473301000</v>
       </c>
       <c r="C597" t="s">
-        <v>792</v>
+        <v>679</v>
       </c>
       <c r="D597">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E597">
-        <v>3175.63</v>
+        <v>4436.1000000000004</v>
       </c>
       <c r="F597">
         <v>0</v>
       </c>
       <c r="G597">
-        <v>0</v>
+        <v>221.81</v>
       </c>
       <c r="H597">
         <v>0</v>
       </c>
       <c r="I597" t="s">
-        <v>788</v>
+        <v>522</v>
       </c>
       <c r="J597" t="s">
         <v>14</v>
+      </c>
+      <c r="K597" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="598" spans="1:11">
       <c r="A598" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B598">
         <v>8542310000</v>
       </c>
       <c r="C598" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="D598">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E598">
-        <v>1705.39</v>
+        <v>464.62</v>
       </c>
       <c r="F598">
         <v>0</v>
@@ -23818,25 +23818,25 @@
     </row>
     <row r="599" spans="1:11">
       <c r="A599" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B599">
-        <v>9030901000</v>
+        <v>9030899000</v>
       </c>
       <c r="C599" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D599">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E599">
-        <v>1064948.5900000001</v>
+        <v>430917.73</v>
       </c>
       <c r="F599">
         <v>0</v>
       </c>
       <c r="G599">
-        <v>106495.86</v>
+        <v>43092.77</v>
       </c>
       <c r="H599">
         <v>0</v>
@@ -23853,19 +23853,19 @@
     </row>
     <row r="600" spans="1:11">
       <c r="A600" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B600">
-        <v>8515199000</v>
+        <v>9022909000</v>
       </c>
       <c r="C600" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D600">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E600">
-        <v>88722</v>
+        <v>3175.63</v>
       </c>
       <c r="F600">
         <v>0</v>
@@ -23885,25 +23885,25 @@
     </row>
     <row r="601" spans="1:11">
       <c r="A601" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B601">
-        <v>8473309000</v>
+        <v>8542310000</v>
       </c>
       <c r="C601" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D601">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E601">
-        <v>1669.45</v>
+        <v>1705.39</v>
       </c>
       <c r="F601">
         <v>0</v>
       </c>
       <c r="G601">
-        <v>83.47</v>
+        <v>0</v>
       </c>
       <c r="H601">
         <v>0</v>
@@ -23912,33 +23912,30 @@
         <v>788</v>
       </c>
       <c r="J601" t="s">
-        <v>14</v>
-      </c>
-      <c r="K601" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="602" spans="1:11">
       <c r="A602" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B602">
-        <v>9030899000</v>
+        <v>9030901000</v>
       </c>
       <c r="C602" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D602">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E602">
-        <v>430917.73</v>
+        <v>1064948.5900000001</v>
       </c>
       <c r="F602">
         <v>0</v>
       </c>
       <c r="G602">
-        <v>43092.77</v>
+        <v>106495.86</v>
       </c>
       <c r="H602">
         <v>0</v>
@@ -23955,101 +23952,104 @@
     </row>
     <row r="603" spans="1:11">
       <c r="A603" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B603">
-        <v>8536691000</v>
+        <v>8515199000</v>
       </c>
       <c r="C603" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D603">
         <v>1</v>
       </c>
       <c r="E603">
-        <v>23529.75</v>
+        <v>88722</v>
       </c>
       <c r="F603">
-        <v>845.19</v>
+        <v>0</v>
       </c>
       <c r="G603">
-        <v>647.98</v>
+        <v>0</v>
       </c>
       <c r="H603">
         <v>0</v>
       </c>
       <c r="I603" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="J603" t="s">
         <v>14</v>
-      </c>
-      <c r="K603" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="604" spans="1:11">
       <c r="A604" t="s">
-        <v>127</v>
+        <v>799</v>
       </c>
       <c r="B604">
-        <v>8542310000</v>
+        <v>8473309000</v>
       </c>
       <c r="C604" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D604">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E604">
-        <v>26867.74</v>
+        <v>1669.45</v>
       </c>
       <c r="F604">
         <v>0</v>
       </c>
       <c r="G604">
-        <v>0</v>
+        <v>83.47</v>
       </c>
       <c r="H604">
         <v>0</v>
       </c>
       <c r="I604" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="J604" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K604" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="605" spans="1:11">
       <c r="A605" t="s">
-        <v>127</v>
+        <v>789</v>
       </c>
       <c r="B605">
-        <v>8542310000</v>
+        <v>9030899000</v>
       </c>
       <c r="C605" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D605">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E605">
-        <v>60537.36</v>
+        <v>430917.73</v>
       </c>
       <c r="F605">
         <v>0</v>
       </c>
       <c r="G605">
-        <v>0</v>
+        <v>43092.77</v>
       </c>
       <c r="H605">
         <v>0</v>
       </c>
       <c r="I605" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="J605" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K605" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -24058,11 +24058,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F37DBA-1ED2-4DDD-A86C-CDC8AD086E70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF00387-5AB6-42D1-B613-D2FBCDFF8901}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
